--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,18 @@
     <t>['11', '44', '50', '66', '86', '90']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['7', '34', '60', '71']</t>
+  </si>
+  <si>
+    <t>['90', '90+2']</t>
+  </si>
+  <si>
     <t>['6', '67']</t>
   </si>
   <si>
@@ -827,6 +839,18 @@
   </si>
   <si>
     <t>['74', '76']</t>
+  </si>
+  <si>
+    <t>['85', '89']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['24', '35', '51', '74', '78']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2065,7 +2089,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2143,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ5">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2271,7 +2295,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2349,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ6">
         <v>2.19</v>
@@ -2555,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2764,7 +2788,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2967,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3173,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ10">
         <v>1.19</v>
@@ -3301,7 +3325,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>2.63</v>
@@ -3713,7 +3737,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>2.75</v>
@@ -3791,10 +3815,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ13">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR13">
         <v>1.24</v>
@@ -3997,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ14">
         <v>1.19</v>
@@ -4125,7 +4149,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4206,7 +4230,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR15">
         <v>1.59</v>
@@ -4409,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ16">
         <v>1.06</v>
@@ -4618,7 +4642,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR17">
         <v>1.51</v>
@@ -5155,7 +5179,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5233,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ20">
         <v>1.19</v>
@@ -5361,7 +5385,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5439,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR21">
         <v>2.02</v>
@@ -5567,7 +5591,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5773,7 +5797,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>3.5</v>
@@ -5851,10 +5875,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR23">
         <v>1.41</v>
@@ -5979,7 +6003,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6057,10 +6081,10 @@
         <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ24">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6185,7 +6209,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -6263,10 +6287,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ25">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6391,7 +6415,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6469,10 +6493,10 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR26">
         <v>1.56</v>
@@ -6597,7 +6621,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6803,7 +6827,7 @@
         <v>83</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>1.95</v>
@@ -7087,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ29">
         <v>0.75</v>
@@ -7296,7 +7320,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ30">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>1.76</v>
@@ -7499,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7708,7 +7732,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR32">
         <v>1.52</v>
@@ -7833,7 +7857,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7911,7 +7935,7 @@
         <v>2.33</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ33">
         <v>2.19</v>
@@ -8039,7 +8063,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -8117,7 +8141,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ34">
         <v>1.19</v>
@@ -8326,7 +8350,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR35">
         <v>1.6</v>
@@ -8529,7 +8553,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ36">
         <v>1.06</v>
@@ -8657,7 +8681,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>2.88</v>
@@ -8863,7 +8887,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -8941,10 +8965,10 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ38">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR38">
         <v>1.44</v>
@@ -9069,7 +9093,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>1.73</v>
@@ -9353,7 +9377,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ40">
         <v>1.19</v>
@@ -9562,7 +9586,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR41">
         <v>1.23</v>
@@ -9687,7 +9711,7 @@
         <v>83</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9768,7 +9792,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR42">
         <v>1.56</v>
@@ -9893,7 +9917,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10177,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10383,7 +10407,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ45">
         <v>1.06</v>
@@ -10511,7 +10535,7 @@
         <v>97</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10589,10 +10613,10 @@
         <v>2.25</v>
       </c>
       <c r="AP46">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ46">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR46">
         <v>1.39</v>
@@ -10795,7 +10819,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ47">
         <v>1.19</v>
@@ -11207,10 +11231,10 @@
         <v>1.8</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ49">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11416,7 +11440,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR50">
         <v>1.54</v>
@@ -11541,7 +11565,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>2.1</v>
@@ -11747,7 +11771,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11953,7 +11977,7 @@
         <v>83</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12034,7 +12058,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ53">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR53">
         <v>1.77</v>
@@ -12159,7 +12183,7 @@
         <v>83</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -12237,7 +12261,7 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ54">
         <v>2.19</v>
@@ -12443,7 +12467,7 @@
         <v>0.25</v>
       </c>
       <c r="AP55">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12571,7 +12595,7 @@
         <v>117</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12649,10 +12673,10 @@
         <v>1.4</v>
       </c>
       <c r="AP56">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR56">
         <v>1.34</v>
@@ -12983,7 +13007,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13473,10 +13497,10 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR60">
         <v>1.53</v>
@@ -13601,7 +13625,7 @@
         <v>120</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>2.2</v>
@@ -13807,7 +13831,7 @@
         <v>121</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13885,7 +13909,7 @@
         <v>0.83</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ62">
         <v>1.06</v>
@@ -14013,7 +14037,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14094,7 +14118,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ63">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR63">
         <v>1.61</v>
@@ -14219,7 +14243,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>4.33</v>
@@ -14300,7 +14324,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR64">
         <v>1.68</v>
@@ -14425,7 +14449,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>1.91</v>
@@ -14503,7 +14527,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ65">
         <v>0.75</v>
@@ -14631,7 +14655,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14709,7 +14733,7 @@
         <v>2.33</v>
       </c>
       <c r="AP66">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ66">
         <v>2.19</v>
@@ -15043,7 +15067,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15121,10 +15145,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15249,7 +15273,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15327,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ69">
         <v>1.19</v>
@@ -15742,7 +15766,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR71">
         <v>1.38</v>
@@ -15867,7 +15891,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15945,10 +15969,10 @@
         <v>1.29</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR72">
         <v>1.31</v>
@@ -16073,7 +16097,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16154,7 +16178,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR73">
         <v>1.43</v>
@@ -16279,7 +16303,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16357,10 +16381,10 @@
         <v>1.43</v>
       </c>
       <c r="AP74">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ74">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR74">
         <v>1.62</v>
@@ -16769,7 +16793,7 @@
         <v>1.57</v>
       </c>
       <c r="AP76">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ76">
         <v>0.75</v>
@@ -16897,7 +16921,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>2.25</v>
@@ -17387,7 +17411,7 @@
         <v>1.38</v>
       </c>
       <c r="AP79">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ79">
         <v>0.75</v>
@@ -17802,7 +17826,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ81">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
         <v>1.55</v>
@@ -18005,10 +18029,10 @@
         <v>1.25</v>
       </c>
       <c r="AP82">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18211,7 +18235,7 @@
         <v>0.86</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ83">
         <v>1.06</v>
@@ -18339,7 +18363,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>1.95</v>
@@ -18545,7 +18569,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18751,7 +18775,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18832,7 +18856,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -18957,7 +18981,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>1.8</v>
@@ -19035,7 +19059,7 @@
         <v>0.43</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19163,7 +19187,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>5.5</v>
@@ -19241,10 +19265,10 @@
         <v>1.63</v>
       </c>
       <c r="AP88">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ88">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR88">
         <v>1.42</v>
@@ -19369,7 +19393,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>2.6</v>
@@ -19447,7 +19471,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ89">
         <v>1.19</v>
@@ -19781,7 +19805,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19987,7 +20011,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>1.73</v>
@@ -20271,10 +20295,10 @@
         <v>1.78</v>
       </c>
       <c r="AP93">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ93">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR93">
         <v>1.61</v>
@@ -20605,7 +20629,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20683,10 +20707,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR95">
         <v>1.42</v>
@@ -20811,7 +20835,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20889,10 +20913,10 @@
         <v>1.33</v>
       </c>
       <c r="AP96">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ96">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR96">
         <v>1.34</v>
@@ -21095,10 +21119,10 @@
         <v>1.22</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21223,7 +21247,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21507,7 +21531,7 @@
         <v>1.44</v>
       </c>
       <c r="AP99">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ99">
         <v>1.19</v>
@@ -21635,7 +21659,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21713,10 +21737,10 @@
         <v>1.11</v>
       </c>
       <c r="AP100">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR100">
         <v>1.64</v>
@@ -21841,7 +21865,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22047,7 +22071,7 @@
         <v>83</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>2.2</v>
@@ -22253,7 +22277,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -22331,10 +22355,10 @@
         <v>1.7</v>
       </c>
       <c r="AP103">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ103">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR103">
         <v>1.33</v>
@@ -22459,7 +22483,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>1.67</v>
@@ -22537,7 +22561,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ104">
         <v>0.75</v>
@@ -22665,7 +22689,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -23077,7 +23101,7 @@
         <v>83</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>3.1</v>
@@ -23158,7 +23182,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR107">
         <v>1.46</v>
@@ -23283,7 +23307,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23361,7 +23385,7 @@
         <v>2.2</v>
       </c>
       <c r="AP108">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ108">
         <v>2.19</v>
@@ -23570,7 +23594,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109">
         <v>1.55</v>
@@ -23773,7 +23797,7 @@
         <v>0.6</v>
       </c>
       <c r="AP110">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -23979,10 +24003,10 @@
         <v>1.2</v>
       </c>
       <c r="AP111">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ111">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR111">
         <v>1.58</v>
@@ -24188,7 +24212,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ112">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR112">
         <v>1.56</v>
@@ -24313,7 +24337,7 @@
         <v>83</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>5.5</v>
@@ -24391,7 +24415,7 @@
         <v>2.27</v>
       </c>
       <c r="AP113">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ113">
         <v>2.19</v>
@@ -24519,7 +24543,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24600,7 +24624,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR114">
         <v>1.59</v>
@@ -24725,7 +24749,7 @@
         <v>159</v>
       </c>
       <c r="P115" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24803,7 +24827,7 @@
         <v>0.64</v>
       </c>
       <c r="AP115">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ115">
         <v>1.06</v>
@@ -24931,7 +24955,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>2.63</v>
@@ -25009,7 +25033,7 @@
         <v>0.73</v>
       </c>
       <c r="AP116">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ116">
         <v>1.19</v>
@@ -25218,7 +25242,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ117">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25424,7 +25448,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR118">
         <v>1.56</v>
@@ -25549,7 +25573,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25755,7 +25779,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>2.75</v>
@@ -25833,7 +25857,7 @@
         <v>0.82</v>
       </c>
       <c r="AP120">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26039,7 +26063,7 @@
         <v>1.45</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ121">
         <v>1.19</v>
@@ -26167,7 +26191,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>3.6</v>
@@ -26245,10 +26269,10 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR122">
         <v>1.34</v>
@@ -26579,7 +26603,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26657,7 +26681,7 @@
         <v>0.92</v>
       </c>
       <c r="AP124">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ124">
         <v>1.19</v>
@@ -26785,7 +26809,7 @@
         <v>83</v>
       </c>
       <c r="P125" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26863,7 +26887,7 @@
         <v>0.83</v>
       </c>
       <c r="AP125">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ125">
         <v>1.06</v>
@@ -26991,7 +27015,7 @@
         <v>166</v>
       </c>
       <c r="P126" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27072,7 +27096,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ126">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR126">
         <v>1.55</v>
@@ -27197,7 +27221,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27275,7 +27299,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ127">
         <v>1.19</v>
@@ -27403,7 +27427,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27481,10 +27505,10 @@
         <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ128">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR128">
         <v>1.45</v>
@@ -27815,7 +27839,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -27893,7 +27917,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ130">
         <v>1.06</v>
@@ -28102,7 +28126,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR131">
         <v>1.75</v>
@@ -28227,7 +28251,7 @@
         <v>83</v>
       </c>
       <c r="P132" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28433,7 +28457,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>2.38</v>
@@ -28639,7 +28663,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q134">
         <v>3.25</v>
@@ -28717,10 +28741,10 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ134">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR134">
         <v>1.45</v>
@@ -28845,7 +28869,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>4.75</v>
@@ -28923,10 +28947,10 @@
         <v>1.08</v>
       </c>
       <c r="AP135">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ135">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29129,10 +29153,10 @@
         <v>1.62</v>
       </c>
       <c r="AP136">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ136">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR136">
         <v>1.6</v>
@@ -29257,7 +29281,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29335,10 +29359,10 @@
         <v>1.08</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR137">
         <v>1.39</v>
@@ -29669,7 +29693,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29956,7 +29980,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR140">
         <v>1.48</v>
@@ -30081,7 +30105,7 @@
         <v>179</v>
       </c>
       <c r="P141" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30287,7 +30311,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>1.91</v>
@@ -30365,7 +30389,7 @@
         <v>0.92</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ142">
         <v>1.19</v>
@@ -30574,7 +30598,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR143">
         <v>1.42</v>
@@ -30777,7 +30801,7 @@
         <v>0.93</v>
       </c>
       <c r="AP144">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ144">
         <v>1.19</v>
@@ -31111,7 +31135,7 @@
         <v>83</v>
       </c>
       <c r="P146" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -31189,7 +31213,7 @@
         <v>2.29</v>
       </c>
       <c r="AP146">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ146">
         <v>2.19</v>
@@ -31523,7 +31547,7 @@
         <v>116</v>
       </c>
       <c r="P148" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31601,10 +31625,10 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR148">
         <v>1.35</v>
@@ -31807,7 +31831,7 @@
         <v>0.86</v>
       </c>
       <c r="AP149">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ149">
         <v>0.75</v>
@@ -32016,7 +32040,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ150">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR150">
         <v>1.57</v>
@@ -32219,7 +32243,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ151">
         <v>1.06</v>
@@ -32425,10 +32449,10 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ152">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR152">
         <v>1.6</v>
@@ -32759,7 +32783,7 @@
         <v>185</v>
       </c>
       <c r="P154" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q154">
         <v>3.6</v>
@@ -32837,7 +32861,7 @@
         <v>0.86</v>
       </c>
       <c r="AP154">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ154">
         <v>1</v>
@@ -32965,7 +32989,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33046,7 +33070,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ155">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR155">
         <v>1.37</v>
@@ -33171,7 +33195,7 @@
         <v>83</v>
       </c>
       <c r="P156" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33249,10 +33273,10 @@
         <v>0.87</v>
       </c>
       <c r="AP156">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR156">
         <v>1.37</v>
@@ -33377,7 +33401,7 @@
         <v>83</v>
       </c>
       <c r="P157" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33583,7 +33607,7 @@
         <v>83</v>
       </c>
       <c r="P158" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -33870,7 +33894,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ159">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR159">
         <v>1.55</v>
@@ -34073,7 +34097,7 @@
         <v>0.8</v>
       </c>
       <c r="AP160">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ160">
         <v>0.75</v>
@@ -34358,6 +34382,1036 @@
       </c>
       <c r="BP161">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7293409</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45415.60416666666</v>
+      </c>
+      <c r="F162">
+        <v>33</v>
+      </c>
+      <c r="G162" t="s">
+        <v>73</v>
+      </c>
+      <c r="H162" t="s">
+        <v>70</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>188</v>
+      </c>
+      <c r="P162" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q162">
+        <v>3.4</v>
+      </c>
+      <c r="R162">
+        <v>2.1</v>
+      </c>
+      <c r="S162">
+        <v>2.88</v>
+      </c>
+      <c r="T162">
+        <v>1.38</v>
+      </c>
+      <c r="U162">
+        <v>2.8</v>
+      </c>
+      <c r="V162">
+        <v>2.8</v>
+      </c>
+      <c r="W162">
+        <v>1.38</v>
+      </c>
+      <c r="X162">
+        <v>6.5</v>
+      </c>
+      <c r="Y162">
+        <v>1.08</v>
+      </c>
+      <c r="Z162">
+        <v>3</v>
+      </c>
+      <c r="AA162">
+        <v>3.4</v>
+      </c>
+      <c r="AB162">
+        <v>2.38</v>
+      </c>
+      <c r="AC162">
+        <v>1.03</v>
+      </c>
+      <c r="AD162">
+        <v>9</v>
+      </c>
+      <c r="AE162">
+        <v>1.29</v>
+      </c>
+      <c r="AF162">
+        <v>3.3</v>
+      </c>
+      <c r="AG162">
+        <v>1.95</v>
+      </c>
+      <c r="AH162">
+        <v>1.85</v>
+      </c>
+      <c r="AI162">
+        <v>1.73</v>
+      </c>
+      <c r="AJ162">
+        <v>2</v>
+      </c>
+      <c r="AK162">
+        <v>1.62</v>
+      </c>
+      <c r="AL162">
+        <v>1.33</v>
+      </c>
+      <c r="AM162">
+        <v>1.38</v>
+      </c>
+      <c r="AN162">
+        <v>1.19</v>
+      </c>
+      <c r="AO162">
+        <v>1</v>
+      </c>
+      <c r="AP162">
+        <v>1.12</v>
+      </c>
+      <c r="AQ162">
+        <v>1.12</v>
+      </c>
+      <c r="AR162">
+        <v>1.51</v>
+      </c>
+      <c r="AS162">
+        <v>1.47</v>
+      </c>
+      <c r="AT162">
+        <v>2.98</v>
+      </c>
+      <c r="AU162">
+        <v>6</v>
+      </c>
+      <c r="AV162">
+        <v>8</v>
+      </c>
+      <c r="AW162">
+        <v>5</v>
+      </c>
+      <c r="AX162">
+        <v>8</v>
+      </c>
+      <c r="AY162">
+        <v>11</v>
+      </c>
+      <c r="AZ162">
+        <v>16</v>
+      </c>
+      <c r="BA162">
+        <v>5</v>
+      </c>
+      <c r="BB162">
+        <v>10</v>
+      </c>
+      <c r="BC162">
+        <v>15</v>
+      </c>
+      <c r="BD162">
+        <v>2.26</v>
+      </c>
+      <c r="BE162">
+        <v>7.1</v>
+      </c>
+      <c r="BF162">
+        <v>1.87</v>
+      </c>
+      <c r="BG162">
+        <v>1.22</v>
+      </c>
+      <c r="BH162">
+        <v>3.64</v>
+      </c>
+      <c r="BI162">
+        <v>1.49</v>
+      </c>
+      <c r="BJ162">
+        <v>2.54</v>
+      </c>
+      <c r="BK162">
+        <v>1.82</v>
+      </c>
+      <c r="BL162">
+        <v>1.97</v>
+      </c>
+      <c r="BM162">
+        <v>2.28</v>
+      </c>
+      <c r="BN162">
+        <v>1.61</v>
+      </c>
+      <c r="BO162">
+        <v>3.04</v>
+      </c>
+      <c r="BP162">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7293410</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45415.60416666666</v>
+      </c>
+      <c r="F163">
+        <v>33</v>
+      </c>
+      <c r="G163" t="s">
+        <v>75</v>
+      </c>
+      <c r="H163" t="s">
+        <v>76</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>189</v>
+      </c>
+      <c r="P163" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q163">
+        <v>2.75</v>
+      </c>
+      <c r="R163">
+        <v>2.05</v>
+      </c>
+      <c r="S163">
+        <v>4</v>
+      </c>
+      <c r="T163">
+        <v>1.31</v>
+      </c>
+      <c r="U163">
+        <v>3.26</v>
+      </c>
+      <c r="V163">
+        <v>2.45</v>
+      </c>
+      <c r="W163">
+        <v>1.53</v>
+      </c>
+      <c r="X163">
+        <v>5.65</v>
+      </c>
+      <c r="Y163">
+        <v>1.12</v>
+      </c>
+      <c r="Z163">
+        <v>2.15</v>
+      </c>
+      <c r="AA163">
+        <v>3.1</v>
+      </c>
+      <c r="AB163">
+        <v>3.75</v>
+      </c>
+      <c r="AC163">
+        <v>1.01</v>
+      </c>
+      <c r="AD163">
+        <v>11</v>
+      </c>
+      <c r="AE163">
+        <v>1.17</v>
+      </c>
+      <c r="AF163">
+        <v>4.15</v>
+      </c>
+      <c r="AG163">
+        <v>2.2</v>
+      </c>
+      <c r="AH163">
+        <v>1.65</v>
+      </c>
+      <c r="AI163">
+        <v>1.83</v>
+      </c>
+      <c r="AJ163">
+        <v>1.83</v>
+      </c>
+      <c r="AK163">
+        <v>1.32</v>
+      </c>
+      <c r="AL163">
+        <v>1.27</v>
+      </c>
+      <c r="AM163">
+        <v>1.62</v>
+      </c>
+      <c r="AN163">
+        <v>1.25</v>
+      </c>
+      <c r="AO163">
+        <v>1.06</v>
+      </c>
+      <c r="AP163">
+        <v>1.24</v>
+      </c>
+      <c r="AQ163">
+        <v>1.06</v>
+      </c>
+      <c r="AR163">
+        <v>1.39</v>
+      </c>
+      <c r="AS163">
+        <v>1.49</v>
+      </c>
+      <c r="AT163">
+        <v>2.88</v>
+      </c>
+      <c r="AU163">
+        <v>4</v>
+      </c>
+      <c r="AV163">
+        <v>3</v>
+      </c>
+      <c r="AW163">
+        <v>16</v>
+      </c>
+      <c r="AX163">
+        <v>6</v>
+      </c>
+      <c r="AY163">
+        <v>20</v>
+      </c>
+      <c r="AZ163">
+        <v>9</v>
+      </c>
+      <c r="BA163">
+        <v>10</v>
+      </c>
+      <c r="BB163">
+        <v>5</v>
+      </c>
+      <c r="BC163">
+        <v>15</v>
+      </c>
+      <c r="BD163">
+        <v>1.8</v>
+      </c>
+      <c r="BE163">
+        <v>7.5</v>
+      </c>
+      <c r="BF163">
+        <v>2.33</v>
+      </c>
+      <c r="BG163">
+        <v>0</v>
+      </c>
+      <c r="BH163">
+        <v>0</v>
+      </c>
+      <c r="BI163">
+        <v>1.26</v>
+      </c>
+      <c r="BJ163">
+        <v>3.34</v>
+      </c>
+      <c r="BK163">
+        <v>1.91</v>
+      </c>
+      <c r="BL163">
+        <v>2.42</v>
+      </c>
+      <c r="BM163">
+        <v>1.87</v>
+      </c>
+      <c r="BN163">
+        <v>1.92</v>
+      </c>
+      <c r="BO163">
+        <v>2.32</v>
+      </c>
+      <c r="BP163">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7293408</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45415.63541666666</v>
+      </c>
+      <c r="F164">
+        <v>33</v>
+      </c>
+      <c r="G164" t="s">
+        <v>78</v>
+      </c>
+      <c r="H164" t="s">
+        <v>71</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>2</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>5</v>
+      </c>
+      <c r="N164">
+        <v>6</v>
+      </c>
+      <c r="O164" t="s">
+        <v>176</v>
+      </c>
+      <c r="P164" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q164">
+        <v>5.5</v>
+      </c>
+      <c r="R164">
+        <v>2.5</v>
+      </c>
+      <c r="S164">
+        <v>1.91</v>
+      </c>
+      <c r="T164">
+        <v>1.25</v>
+      </c>
+      <c r="U164">
+        <v>3.7</v>
+      </c>
+      <c r="V164">
+        <v>2.21</v>
+      </c>
+      <c r="W164">
+        <v>1.61</v>
+      </c>
+      <c r="X164">
+        <v>4.85</v>
+      </c>
+      <c r="Y164">
+        <v>1.16</v>
+      </c>
+      <c r="Z164">
+        <v>6.5</v>
+      </c>
+      <c r="AA164">
+        <v>4.75</v>
+      </c>
+      <c r="AB164">
+        <v>1.44</v>
+      </c>
+      <c r="AC164">
+        <v>1.02</v>
+      </c>
+      <c r="AD164">
+        <v>12</v>
+      </c>
+      <c r="AE164">
+        <v>1.12</v>
+      </c>
+      <c r="AF164">
+        <v>4.95</v>
+      </c>
+      <c r="AG164">
+        <v>1.5</v>
+      </c>
+      <c r="AH164">
+        <v>2.5</v>
+      </c>
+      <c r="AI164">
+        <v>1.73</v>
+      </c>
+      <c r="AJ164">
+        <v>2</v>
+      </c>
+      <c r="AK164">
+        <v>2.35</v>
+      </c>
+      <c r="AL164">
+        <v>1.17</v>
+      </c>
+      <c r="AM164">
+        <v>1.13</v>
+      </c>
+      <c r="AN164">
+        <v>0.75</v>
+      </c>
+      <c r="AO164">
+        <v>1.38</v>
+      </c>
+      <c r="AP164">
+        <v>0.71</v>
+      </c>
+      <c r="AQ164">
+        <v>1.47</v>
+      </c>
+      <c r="AR164">
+        <v>1.41</v>
+      </c>
+      <c r="AS164">
+        <v>1.45</v>
+      </c>
+      <c r="AT164">
+        <v>2.86</v>
+      </c>
+      <c r="AU164">
+        <v>4</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>6</v>
+      </c>
+      <c r="AX164">
+        <v>13</v>
+      </c>
+      <c r="AY164">
+        <v>10</v>
+      </c>
+      <c r="AZ164">
+        <v>16</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>10</v>
+      </c>
+      <c r="BC164">
+        <v>15</v>
+      </c>
+      <c r="BD164">
+        <v>3.12</v>
+      </c>
+      <c r="BE164">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF164">
+        <v>1.44</v>
+      </c>
+      <c r="BG164">
+        <v>1.15</v>
+      </c>
+      <c r="BH164">
+        <v>4.8</v>
+      </c>
+      <c r="BI164">
+        <v>1.27</v>
+      </c>
+      <c r="BJ164">
+        <v>3.28</v>
+      </c>
+      <c r="BK164">
+        <v>1.54</v>
+      </c>
+      <c r="BL164">
+        <v>2.41</v>
+      </c>
+      <c r="BM164">
+        <v>1.88</v>
+      </c>
+      <c r="BN164">
+        <v>1.92</v>
+      </c>
+      <c r="BO164">
+        <v>2.32</v>
+      </c>
+      <c r="BP164">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7293411</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45415.63541666666</v>
+      </c>
+      <c r="F165">
+        <v>33</v>
+      </c>
+      <c r="G165" t="s">
+        <v>77</v>
+      </c>
+      <c r="H165" t="s">
+        <v>79</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>4</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165" t="s">
+        <v>190</v>
+      </c>
+      <c r="P165" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q165">
+        <v>2</v>
+      </c>
+      <c r="R165">
+        <v>2.4</v>
+      </c>
+      <c r="S165">
+        <v>5.5</v>
+      </c>
+      <c r="T165">
+        <v>1.33</v>
+      </c>
+      <c r="U165">
+        <v>3.14</v>
+      </c>
+      <c r="V165">
+        <v>2.63</v>
+      </c>
+      <c r="W165">
+        <v>1.49</v>
+      </c>
+      <c r="X165">
+        <v>6.1</v>
+      </c>
+      <c r="Y165">
+        <v>1.1</v>
+      </c>
+      <c r="Z165">
+        <v>1.5</v>
+      </c>
+      <c r="AA165">
+        <v>4.5</v>
+      </c>
+      <c r="AB165">
+        <v>6</v>
+      </c>
+      <c r="AC165">
+        <v>1.02</v>
+      </c>
+      <c r="AD165">
+        <v>10</v>
+      </c>
+      <c r="AE165">
+        <v>1.21</v>
+      </c>
+      <c r="AF165">
+        <v>3.74</v>
+      </c>
+      <c r="AG165">
+        <v>1.62</v>
+      </c>
+      <c r="AH165">
+        <v>2.25</v>
+      </c>
+      <c r="AI165">
+        <v>1.8</v>
+      </c>
+      <c r="AJ165">
+        <v>1.91</v>
+      </c>
+      <c r="AK165">
+        <v>1.16</v>
+      </c>
+      <c r="AL165">
+        <v>1.2</v>
+      </c>
+      <c r="AM165">
+        <v>2.1</v>
+      </c>
+      <c r="AN165">
+        <v>2</v>
+      </c>
+      <c r="AO165">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP165">
+        <v>2.06</v>
+      </c>
+      <c r="AQ165">
+        <v>0.88</v>
+      </c>
+      <c r="AR165">
+        <v>1.5</v>
+      </c>
+      <c r="AS165">
+        <v>1.42</v>
+      </c>
+      <c r="AT165">
+        <v>2.92</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>0</v>
+      </c>
+      <c r="AW165">
+        <v>5</v>
+      </c>
+      <c r="AX165">
+        <v>3</v>
+      </c>
+      <c r="AY165">
+        <v>12</v>
+      </c>
+      <c r="AZ165">
+        <v>3</v>
+      </c>
+      <c r="BA165">
+        <v>7</v>
+      </c>
+      <c r="BB165">
+        <v>1</v>
+      </c>
+      <c r="BC165">
+        <v>8</v>
+      </c>
+      <c r="BD165">
+        <v>1.43</v>
+      </c>
+      <c r="BE165">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF165">
+        <v>3.22</v>
+      </c>
+      <c r="BG165">
+        <v>1.22</v>
+      </c>
+      <c r="BH165">
+        <v>3.65</v>
+      </c>
+      <c r="BI165">
+        <v>1.46</v>
+      </c>
+      <c r="BJ165">
+        <v>2.58</v>
+      </c>
+      <c r="BK165">
+        <v>2.38</v>
+      </c>
+      <c r="BL165">
+        <v>2</v>
+      </c>
+      <c r="BM165">
+        <v>2.25</v>
+      </c>
+      <c r="BN165">
+        <v>1.61</v>
+      </c>
+      <c r="BO165">
+        <v>2.98</v>
+      </c>
+      <c r="BP165">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7293412</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45415.63541666666</v>
+      </c>
+      <c r="F166">
+        <v>33</v>
+      </c>
+      <c r="G166" t="s">
+        <v>74</v>
+      </c>
+      <c r="H166" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>191</v>
+      </c>
+      <c r="P166" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q166">
+        <v>2.5</v>
+      </c>
+      <c r="R166">
+        <v>2.4</v>
+      </c>
+      <c r="S166">
+        <v>3.4</v>
+      </c>
+      <c r="T166">
+        <v>1.24</v>
+      </c>
+      <c r="U166">
+        <v>3.8</v>
+      </c>
+      <c r="V166">
+        <v>2.17</v>
+      </c>
+      <c r="W166">
+        <v>1.67</v>
+      </c>
+      <c r="X166">
+        <v>4.65</v>
+      </c>
+      <c r="Y166">
+        <v>1.17</v>
+      </c>
+      <c r="Z166">
+        <v>2</v>
+      </c>
+      <c r="AA166">
+        <v>3.75</v>
+      </c>
+      <c r="AB166">
+        <v>3.5</v>
+      </c>
+      <c r="AC166">
+        <v>1.02</v>
+      </c>
+      <c r="AD166">
+        <v>13</v>
+      </c>
+      <c r="AE166">
+        <v>1.11</v>
+      </c>
+      <c r="AF166">
+        <v>5.2</v>
+      </c>
+      <c r="AG166">
+        <v>1.5</v>
+      </c>
+      <c r="AH166">
+        <v>2.5</v>
+      </c>
+      <c r="AI166">
+        <v>1.44</v>
+      </c>
+      <c r="AJ166">
+        <v>2.63</v>
+      </c>
+      <c r="AK166">
+        <v>1.32</v>
+      </c>
+      <c r="AL166">
+        <v>1.22</v>
+      </c>
+      <c r="AM166">
+        <v>1.71</v>
+      </c>
+      <c r="AN166">
+        <v>1.56</v>
+      </c>
+      <c r="AO166">
+        <v>1</v>
+      </c>
+      <c r="AP166">
+        <v>1.65</v>
+      </c>
+      <c r="AQ166">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR166">
+        <v>1.65</v>
+      </c>
+      <c r="AS166">
+        <v>1.42</v>
+      </c>
+      <c r="AT166">
+        <v>3.07</v>
+      </c>
+      <c r="AU166">
+        <v>12</v>
+      </c>
+      <c r="AV166">
+        <v>8</v>
+      </c>
+      <c r="AW166">
+        <v>9</v>
+      </c>
+      <c r="AX166">
+        <v>12</v>
+      </c>
+      <c r="AY166">
+        <v>21</v>
+      </c>
+      <c r="AZ166">
+        <v>20</v>
+      </c>
+      <c r="BA166">
+        <v>5</v>
+      </c>
+      <c r="BB166">
+        <v>3</v>
+      </c>
+      <c r="BC166">
+        <v>8</v>
+      </c>
+      <c r="BD166">
+        <v>1.67</v>
+      </c>
+      <c r="BE166">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF166">
+        <v>2.44</v>
+      </c>
+      <c r="BG166">
+        <v>0</v>
+      </c>
+      <c r="BH166">
+        <v>0</v>
+      </c>
+      <c r="BI166">
+        <v>1.22</v>
+      </c>
+      <c r="BJ166">
+        <v>3.65</v>
+      </c>
+      <c r="BK166">
+        <v>1.4</v>
+      </c>
+      <c r="BL166">
+        <v>2.64</v>
+      </c>
+      <c r="BM166">
+        <v>1.73</v>
+      </c>
+      <c r="BN166">
+        <v>2.07</v>
+      </c>
+      <c r="BO166">
+        <v>2.14</v>
+      </c>
+      <c r="BP166">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,15 @@
     <t>['90', '90+2']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['11', '49', '71']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['6', '67']</t>
   </si>
   <si>
@@ -826,9 +835,6 @@
     <t>['14', '59', '76']</t>
   </si>
   <si>
-    <t>['25']</t>
-  </si>
-  <si>
     <t>['13', '90+4']</t>
   </si>
   <si>
@@ -851,6 +857,12 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['33', '76']</t>
+  </si>
+  <si>
+    <t>['5', '74', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1961,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2089,7 +2101,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2295,7 +2307,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2376,7 +2388,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ6">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2785,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ8">
         <v>1.12</v>
@@ -3200,7 +3212,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ10">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3325,7 +3337,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>2.63</v>
@@ -3403,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ11">
         <v>1.19</v>
@@ -3612,7 +3624,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR12">
         <v>1.29</v>
@@ -3737,7 +3749,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>2.75</v>
@@ -4024,7 +4036,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ14">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR14">
         <v>1.29</v>
@@ -4149,7 +4161,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4227,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ15">
         <v>1.12</v>
@@ -4845,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5051,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ19">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR19">
         <v>2.13</v>
@@ -5179,7 +5191,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5385,7 +5397,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5591,7 +5603,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5669,10 +5681,10 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR22">
         <v>1.33</v>
@@ -5797,7 +5809,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>3.5</v>
@@ -6003,7 +6015,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6209,7 +6221,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -6415,7 +6427,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6621,7 +6633,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6702,7 +6714,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ27">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR27">
         <v>1.45</v>
@@ -6827,7 +6839,7 @@
         <v>83</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>1.95</v>
@@ -6905,7 +6917,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ28">
         <v>1.06</v>
@@ -7114,7 +7126,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR29">
         <v>1.14</v>
@@ -7729,7 +7741,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ32">
         <v>1.12</v>
@@ -7857,7 +7869,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7938,7 +7950,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ33">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR33">
         <v>1.39</v>
@@ -8063,7 +8075,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -8681,7 +8693,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>2.88</v>
@@ -8759,7 +8771,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ37">
         <v>1.19</v>
@@ -8887,7 +8899,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -9093,7 +9105,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>1.73</v>
@@ -9174,7 +9186,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9380,7 +9392,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ40">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR40">
         <v>1.27</v>
@@ -9583,7 +9595,7 @@
         <v>2.25</v>
       </c>
       <c r="AP41">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ41">
         <v>0.88</v>
@@ -9711,7 +9723,7 @@
         <v>83</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9789,7 +9801,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ42">
         <v>0.9399999999999999</v>
@@ -9917,7 +9929,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9998,7 +10010,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ43">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -10535,7 +10547,7 @@
         <v>97</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -11025,10 +11037,10 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR48">
         <v>1.13</v>
@@ -11565,7 +11577,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>2.1</v>
@@ -11643,10 +11655,10 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ51">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>1.82</v>
@@ -11771,7 +11783,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11977,7 +11989,7 @@
         <v>83</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12055,7 +12067,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ53">
         <v>1.47</v>
@@ -12183,7 +12195,7 @@
         <v>83</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -12264,7 +12276,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ54">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR54">
         <v>1.51</v>
@@ -12595,7 +12607,7 @@
         <v>117</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12879,10 +12891,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ57">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13007,7 +13019,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13085,10 +13097,10 @@
         <v>1.2</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
         <v>1.51</v>
@@ -13291,7 +13303,7 @@
         <v>0.4</v>
       </c>
       <c r="AP59">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13625,7 +13637,7 @@
         <v>120</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>2.2</v>
@@ -13831,7 +13843,7 @@
         <v>121</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14037,7 +14049,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14243,7 +14255,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>4.33</v>
@@ -14321,7 +14333,7 @@
         <v>2.17</v>
       </c>
       <c r="AP64">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ64">
         <v>1.47</v>
@@ -14449,7 +14461,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>1.91</v>
@@ -14530,7 +14542,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR65">
         <v>1.32</v>
@@ -14655,7 +14667,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14736,7 +14748,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ66">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR66">
         <v>1.76</v>
@@ -14939,10 +14951,10 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ67">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15067,7 +15079,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15273,7 +15285,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15763,7 +15775,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71">
         <v>0.9399999999999999</v>
@@ -15891,7 +15903,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16097,7 +16109,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16175,7 +16187,7 @@
         <v>1.86</v>
       </c>
       <c r="AP73">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
         <v>1.47</v>
@@ -16303,7 +16315,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16587,10 +16599,10 @@
         <v>2.43</v>
       </c>
       <c r="AP75">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ75">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR75">
         <v>1.61</v>
@@ -16796,7 +16808,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ76">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR76">
         <v>1.7</v>
@@ -16921,7 +16933,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>2.25</v>
@@ -17205,7 +17217,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
         <v>1.19</v>
@@ -17414,7 +17426,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR79">
         <v>1.35</v>
@@ -17620,7 +17632,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ80">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR80">
         <v>1.78</v>
@@ -17823,7 +17835,7 @@
         <v>1.38</v>
       </c>
       <c r="AP81">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ81">
         <v>0.88</v>
@@ -18363,7 +18375,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>1.95</v>
@@ -18444,7 +18456,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ84">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR84">
         <v>1.64</v>
@@ -18569,7 +18581,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18647,7 +18659,7 @@
         <v>0.88</v>
       </c>
       <c r="AP85">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ85">
         <v>1.06</v>
@@ -18775,7 +18787,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18981,7 +18993,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>1.8</v>
@@ -19187,7 +19199,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>5.5</v>
@@ -19393,7 +19405,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>2.6</v>
@@ -19474,7 +19486,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ89">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR89">
         <v>1.64</v>
@@ -19677,7 +19689,7 @@
         <v>0.89</v>
       </c>
       <c r="AP90">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ90">
         <v>1.19</v>
@@ -19805,7 +19817,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19883,10 +19895,10 @@
         <v>2.11</v>
       </c>
       <c r="AP91">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ91">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR91">
         <v>1.64</v>
@@ -20011,7 +20023,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>1.73</v>
@@ -20092,7 +20104,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ92">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR92">
         <v>1.6</v>
@@ -20501,7 +20513,7 @@
         <v>0.38</v>
       </c>
       <c r="AP94">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20629,7 +20641,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20835,7 +20847,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21247,7 +21259,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21534,7 +21546,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ99">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR99">
         <v>1.44</v>
@@ -21659,7 +21671,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21865,7 +21877,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21943,7 +21955,7 @@
         <v>0.33</v>
       </c>
       <c r="AP101">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22071,7 +22083,7 @@
         <v>83</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>2.2</v>
@@ -22152,7 +22164,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ102">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR102">
         <v>1.56</v>
@@ -22277,7 +22289,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -22483,7 +22495,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q104">
         <v>1.67</v>
@@ -22564,7 +22576,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ104">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -22689,7 +22701,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -22767,7 +22779,7 @@
         <v>0.7</v>
       </c>
       <c r="AP105">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ105">
         <v>1.06</v>
@@ -22973,7 +22985,7 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ106">
         <v>1.19</v>
@@ -23101,7 +23113,7 @@
         <v>83</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>3.1</v>
@@ -23179,7 +23191,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
         <v>1.12</v>
@@ -23307,7 +23319,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23388,7 +23400,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ108">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR108">
         <v>1.65</v>
@@ -24337,7 +24349,7 @@
         <v>83</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>5.5</v>
@@ -24418,7 +24430,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ113">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR113">
         <v>1.32</v>
@@ -24543,7 +24555,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24621,7 +24633,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ114">
         <v>0.9399999999999999</v>
@@ -24749,7 +24761,7 @@
         <v>159</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24955,7 +24967,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>2.63</v>
@@ -25239,7 +25251,7 @@
         <v>1.18</v>
       </c>
       <c r="AP117">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ117">
         <v>0.88</v>
@@ -25445,7 +25457,7 @@
         <v>1.18</v>
       </c>
       <c r="AP118">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ118">
         <v>1.12</v>
@@ -25573,7 +25585,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25654,7 +25666,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ119">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR119">
         <v>1.55</v>
@@ -25779,7 +25791,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>2.75</v>
@@ -26066,7 +26078,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ121">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR121">
         <v>1.45</v>
@@ -26191,7 +26203,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>3.6</v>
@@ -26478,7 +26490,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ123">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR123">
         <v>1.49</v>
@@ -26603,7 +26615,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26809,7 +26821,7 @@
         <v>83</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -27015,7 +27027,7 @@
         <v>166</v>
       </c>
       <c r="P126" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27221,7 +27233,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27302,7 +27314,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ127">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR127">
         <v>1.34</v>
@@ -27427,7 +27439,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27711,10 +27723,10 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ129">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR129">
         <v>1.59</v>
@@ -27839,7 +27851,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -28123,7 +28135,7 @@
         <v>1.08</v>
       </c>
       <c r="AP131">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ131">
         <v>1.12</v>
@@ -28251,7 +28263,7 @@
         <v>83</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28329,10 +28341,10 @@
         <v>2.23</v>
       </c>
       <c r="AP132">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR132">
         <v>1.49</v>
@@ -28457,7 +28469,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q133">
         <v>2.38</v>
@@ -28663,7 +28675,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q134">
         <v>3.25</v>
@@ -28869,7 +28881,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>4.75</v>
@@ -29281,7 +29293,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29565,10 +29577,10 @@
         <v>0.92</v>
       </c>
       <c r="AP138">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ138">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR138">
         <v>1.46</v>
@@ -29693,7 +29705,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29771,7 +29783,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP139">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -30105,7 +30117,7 @@
         <v>179</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30183,10 +30195,10 @@
         <v>1.23</v>
       </c>
       <c r="AP141">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ141">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR141">
         <v>1.75</v>
@@ -30311,7 +30323,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>1.91</v>
@@ -31010,7 +31022,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ145">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR145">
         <v>1.5</v>
@@ -31135,7 +31147,7 @@
         <v>83</v>
       </c>
       <c r="P146" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -31216,7 +31228,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ146">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR146">
         <v>1.37</v>
@@ -31419,7 +31431,7 @@
         <v>1.14</v>
       </c>
       <c r="AP147">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
         <v>1.06</v>
@@ -31547,7 +31559,7 @@
         <v>116</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31834,7 +31846,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ149">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR149">
         <v>1.49</v>
@@ -32037,7 +32049,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ150">
         <v>1.47</v>
@@ -32658,7 +32670,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ153">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR153">
         <v>1.52</v>
@@ -32783,7 +32795,7 @@
         <v>185</v>
       </c>
       <c r="P154" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q154">
         <v>3.6</v>
@@ -32989,7 +33001,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33195,7 +33207,7 @@
         <v>83</v>
       </c>
       <c r="P156" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33401,7 +33413,7 @@
         <v>83</v>
       </c>
       <c r="P157" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33479,7 +33491,7 @@
         <v>1.07</v>
       </c>
       <c r="AP157">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ157">
         <v>1.19</v>
@@ -33607,7 +33619,7 @@
         <v>83</v>
       </c>
       <c r="P158" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -33685,10 +33697,10 @@
         <v>1.07</v>
       </c>
       <c r="AP158">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ158">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR158">
         <v>1.56</v>
@@ -33891,7 +33903,7 @@
         <v>1.4</v>
       </c>
       <c r="AP159">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ159">
         <v>1.47</v>
@@ -34100,7 +34112,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ160">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR160">
         <v>1.62</v>
@@ -34303,7 +34315,7 @@
         <v>0.87</v>
       </c>
       <c r="AP161">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -34431,7 +34443,7 @@
         <v>188</v>
       </c>
       <c r="P162" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q162">
         <v>3.4</v>
@@ -34637,7 +34649,7 @@
         <v>189</v>
       </c>
       <c r="P163" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q163">
         <v>2.75</v>
@@ -34843,7 +34855,7 @@
         <v>176</v>
       </c>
       <c r="P164" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q164">
         <v>5.5</v>
@@ -35255,7 +35267,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35412,6 +35424,624 @@
       </c>
       <c r="BP166">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7293413</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45421.54166666666</v>
+      </c>
+      <c r="F167">
+        <v>34</v>
+      </c>
+      <c r="G167" t="s">
+        <v>72</v>
+      </c>
+      <c r="H167" t="s">
+        <v>77</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>192</v>
+      </c>
+      <c r="P167" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q167">
+        <v>5.5</v>
+      </c>
+      <c r="R167">
+        <v>2.5</v>
+      </c>
+      <c r="S167">
+        <v>1.91</v>
+      </c>
+      <c r="T167">
+        <v>1.31</v>
+      </c>
+      <c r="U167">
+        <v>3.26</v>
+      </c>
+      <c r="V167">
+        <v>2.4</v>
+      </c>
+      <c r="W167">
+        <v>1.51</v>
+      </c>
+      <c r="X167">
+        <v>5.75</v>
+      </c>
+      <c r="Y167">
+        <v>1.12</v>
+      </c>
+      <c r="Z167">
+        <v>6.5</v>
+      </c>
+      <c r="AA167">
+        <v>4.75</v>
+      </c>
+      <c r="AB167">
+        <v>1.44</v>
+      </c>
+      <c r="AC167">
+        <v>1.01</v>
+      </c>
+      <c r="AD167">
+        <v>11</v>
+      </c>
+      <c r="AE167">
+        <v>1.21</v>
+      </c>
+      <c r="AF167">
+        <v>4.22</v>
+      </c>
+      <c r="AG167">
+        <v>1.53</v>
+      </c>
+      <c r="AH167">
+        <v>2.38</v>
+      </c>
+      <c r="AI167">
+        <v>1.73</v>
+      </c>
+      <c r="AJ167">
+        <v>2</v>
+      </c>
+      <c r="AK167">
+        <v>2.15</v>
+      </c>
+      <c r="AL167">
+        <v>1.18</v>
+      </c>
+      <c r="AM167">
+        <v>1.15</v>
+      </c>
+      <c r="AN167">
+        <v>1.69</v>
+      </c>
+      <c r="AO167">
+        <v>2.19</v>
+      </c>
+      <c r="AP167">
+        <v>1.59</v>
+      </c>
+      <c r="AQ167">
+        <v>2.24</v>
+      </c>
+      <c r="AR167">
+        <v>1.57</v>
+      </c>
+      <c r="AS167">
+        <v>1.6</v>
+      </c>
+      <c r="AT167">
+        <v>3.17</v>
+      </c>
+      <c r="AU167">
+        <v>3</v>
+      </c>
+      <c r="AV167">
+        <v>6</v>
+      </c>
+      <c r="AW167">
+        <v>1</v>
+      </c>
+      <c r="AX167">
+        <v>9</v>
+      </c>
+      <c r="AY167">
+        <v>4</v>
+      </c>
+      <c r="AZ167">
+        <v>15</v>
+      </c>
+      <c r="BA167">
+        <v>1</v>
+      </c>
+      <c r="BB167">
+        <v>6</v>
+      </c>
+      <c r="BC167">
+        <v>7</v>
+      </c>
+      <c r="BD167">
+        <v>3.08</v>
+      </c>
+      <c r="BE167">
+        <v>9.6</v>
+      </c>
+      <c r="BF167">
+        <v>1.45</v>
+      </c>
+      <c r="BG167">
+        <v>1.13</v>
+      </c>
+      <c r="BH167">
+        <v>5</v>
+      </c>
+      <c r="BI167">
+        <v>1.26</v>
+      </c>
+      <c r="BJ167">
+        <v>3.34</v>
+      </c>
+      <c r="BK167">
+        <v>1.52</v>
+      </c>
+      <c r="BL167">
+        <v>2.43</v>
+      </c>
+      <c r="BM167">
+        <v>1.85</v>
+      </c>
+      <c r="BN167">
+        <v>1.94</v>
+      </c>
+      <c r="BO167">
+        <v>2.28</v>
+      </c>
+      <c r="BP167">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7293417</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45421.54166666666</v>
+      </c>
+      <c r="F168">
+        <v>34</v>
+      </c>
+      <c r="G168" t="s">
+        <v>79</v>
+      </c>
+      <c r="H168" t="s">
+        <v>78</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>4</v>
+      </c>
+      <c r="O168" t="s">
+        <v>193</v>
+      </c>
+      <c r="P168" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q168">
+        <v>1.83</v>
+      </c>
+      <c r="R168">
+        <v>2.5</v>
+      </c>
+      <c r="S168">
+        <v>5.5</v>
+      </c>
+      <c r="T168">
+        <v>1.3</v>
+      </c>
+      <c r="U168">
+        <v>3.32</v>
+      </c>
+      <c r="V168">
+        <v>2.4</v>
+      </c>
+      <c r="W168">
+        <v>1.51</v>
+      </c>
+      <c r="X168">
+        <v>5.6</v>
+      </c>
+      <c r="Y168">
+        <v>1.12</v>
+      </c>
+      <c r="Z168">
+        <v>1.44</v>
+      </c>
+      <c r="AA168">
+        <v>5</v>
+      </c>
+      <c r="AB168">
+        <v>6.5</v>
+      </c>
+      <c r="AC168">
+        <v>1.01</v>
+      </c>
+      <c r="AD168">
+        <v>11</v>
+      </c>
+      <c r="AE168">
+        <v>1.2</v>
+      </c>
+      <c r="AF168">
+        <v>4.34</v>
+      </c>
+      <c r="AG168">
+        <v>1.53</v>
+      </c>
+      <c r="AH168">
+        <v>2.38</v>
+      </c>
+      <c r="AI168">
+        <v>1.73</v>
+      </c>
+      <c r="AJ168">
+        <v>2</v>
+      </c>
+      <c r="AK168">
+        <v>1.16</v>
+      </c>
+      <c r="AL168">
+        <v>1.2</v>
+      </c>
+      <c r="AM168">
+        <v>2.15</v>
+      </c>
+      <c r="AN168">
+        <v>1.44</v>
+      </c>
+      <c r="AO168">
+        <v>0.75</v>
+      </c>
+      <c r="AP168">
+        <v>1.53</v>
+      </c>
+      <c r="AQ168">
+        <v>0.71</v>
+      </c>
+      <c r="AR168">
+        <v>1.71</v>
+      </c>
+      <c r="AS168">
+        <v>1.13</v>
+      </c>
+      <c r="AT168">
+        <v>2.84</v>
+      </c>
+      <c r="AU168">
+        <v>7</v>
+      </c>
+      <c r="AV168">
+        <v>5</v>
+      </c>
+      <c r="AW168">
+        <v>10</v>
+      </c>
+      <c r="AX168">
+        <v>11</v>
+      </c>
+      <c r="AY168">
+        <v>17</v>
+      </c>
+      <c r="AZ168">
+        <v>16</v>
+      </c>
+      <c r="BA168">
+        <v>3</v>
+      </c>
+      <c r="BB168">
+        <v>1</v>
+      </c>
+      <c r="BC168">
+        <v>4</v>
+      </c>
+      <c r="BD168">
+        <v>1.42</v>
+      </c>
+      <c r="BE168">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF168">
+        <v>3.22</v>
+      </c>
+      <c r="BG168">
+        <v>1.15</v>
+      </c>
+      <c r="BH168">
+        <v>4.7</v>
+      </c>
+      <c r="BI168">
+        <v>1.28</v>
+      </c>
+      <c r="BJ168">
+        <v>3.18</v>
+      </c>
+      <c r="BK168">
+        <v>2</v>
+      </c>
+      <c r="BL168">
+        <v>2.34</v>
+      </c>
+      <c r="BM168">
+        <v>1.94</v>
+      </c>
+      <c r="BN168">
+        <v>1.85</v>
+      </c>
+      <c r="BO168">
+        <v>2.44</v>
+      </c>
+      <c r="BP168">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7293415</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45421.54166666666</v>
+      </c>
+      <c r="F169">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>76</v>
+      </c>
+      <c r="H169" t="s">
+        <v>73</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>3</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169" t="s">
+        <v>194</v>
+      </c>
+      <c r="P169" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q169">
+        <v>2.5</v>
+      </c>
+      <c r="R169">
+        <v>2.25</v>
+      </c>
+      <c r="S169">
+        <v>3.75</v>
+      </c>
+      <c r="T169">
+        <v>1.34</v>
+      </c>
+      <c r="U169">
+        <v>3.1</v>
+      </c>
+      <c r="V169">
+        <v>2.6</v>
+      </c>
+      <c r="W169">
+        <v>1.45</v>
+      </c>
+      <c r="X169">
+        <v>6.2</v>
+      </c>
+      <c r="Y169">
+        <v>1.1</v>
+      </c>
+      <c r="Z169">
+        <v>1.91</v>
+      </c>
+      <c r="AA169">
+        <v>3.8</v>
+      </c>
+      <c r="AB169">
+        <v>3.5</v>
+      </c>
+      <c r="AC169">
+        <v>1.02</v>
+      </c>
+      <c r="AD169">
+        <v>10.5</v>
+      </c>
+      <c r="AE169">
+        <v>1.23</v>
+      </c>
+      <c r="AF169">
+        <v>4</v>
+      </c>
+      <c r="AG169">
+        <v>1.7</v>
+      </c>
+      <c r="AH169">
+        <v>2.1</v>
+      </c>
+      <c r="AI169">
+        <v>1.67</v>
+      </c>
+      <c r="AJ169">
+        <v>2.1</v>
+      </c>
+      <c r="AK169">
+        <v>1.3</v>
+      </c>
+      <c r="AL169">
+        <v>1.22</v>
+      </c>
+      <c r="AM169">
+        <v>1.75</v>
+      </c>
+      <c r="AN169">
+        <v>1.38</v>
+      </c>
+      <c r="AO169">
+        <v>1.19</v>
+      </c>
+      <c r="AP169">
+        <v>1.29</v>
+      </c>
+      <c r="AQ169">
+        <v>1.29</v>
+      </c>
+      <c r="AR169">
+        <v>1.52</v>
+      </c>
+      <c r="AS169">
+        <v>1.13</v>
+      </c>
+      <c r="AT169">
+        <v>2.65</v>
+      </c>
+      <c r="AU169">
+        <v>4</v>
+      </c>
+      <c r="AV169">
+        <v>5</v>
+      </c>
+      <c r="AW169">
+        <v>5</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>9</v>
+      </c>
+      <c r="AZ169">
+        <v>9</v>
+      </c>
+      <c r="BA169">
+        <v>6</v>
+      </c>
+      <c r="BB169">
+        <v>6</v>
+      </c>
+      <c r="BC169">
+        <v>12</v>
+      </c>
+      <c r="BD169">
+        <v>1.57</v>
+      </c>
+      <c r="BE169">
+        <v>9.4</v>
+      </c>
+      <c r="BF169">
+        <v>2.67</v>
+      </c>
+      <c r="BG169">
+        <v>1.16</v>
+      </c>
+      <c r="BH169">
+        <v>4.5</v>
+      </c>
+      <c r="BI169">
+        <v>1.27</v>
+      </c>
+      <c r="BJ169">
+        <v>3.28</v>
+      </c>
+      <c r="BK169">
+        <v>1.83</v>
+      </c>
+      <c r="BL169">
+        <v>2.42</v>
+      </c>
+      <c r="BM169">
+        <v>1.89</v>
+      </c>
+      <c r="BN169">
+        <v>1.91</v>
+      </c>
+      <c r="BO169">
+        <v>2.36</v>
+      </c>
+      <c r="BP169">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['6', '58', '70']</t>
   </si>
   <si>
     <t>['6', '67']</t>
@@ -1224,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1767,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ3">
         <v>1.06</v>
@@ -2101,7 +2107,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2307,7 +2313,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -3337,7 +3343,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>2.63</v>
@@ -3418,7 +3424,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ11">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3621,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ12">
         <v>0.71</v>
@@ -3749,7 +3755,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>2.75</v>
@@ -4161,7 +4167,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4651,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ17">
         <v>1.47</v>
@@ -4860,7 +4866,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR18">
         <v>1.07</v>
@@ -5191,7 +5197,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5272,7 +5278,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ20">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR20">
         <v>1.18</v>
@@ -5397,7 +5403,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5603,7 +5609,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5809,7 +5815,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>3.5</v>
@@ -6015,7 +6021,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6221,7 +6227,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -6427,7 +6433,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6633,7 +6639,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6711,7 +6717,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ27">
         <v>1.29</v>
@@ -6839,7 +6845,7 @@
         <v>83</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>1.95</v>
@@ -7329,7 +7335,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ30">
         <v>0.88</v>
@@ -7538,7 +7544,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR31">
         <v>1.42</v>
@@ -7869,7 +7875,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8075,7 +8081,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -8156,7 +8162,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ34">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR34">
         <v>2.01</v>
@@ -8359,7 +8365,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ35">
         <v>0.9399999999999999</v>
@@ -8693,7 +8699,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>2.88</v>
@@ -8774,7 +8780,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ37">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR37">
         <v>1.66</v>
@@ -8899,7 +8905,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -9105,7 +9111,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>1.73</v>
@@ -9183,7 +9189,7 @@
         <v>0.33</v>
       </c>
       <c r="AP39">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ39">
         <v>0.71</v>
@@ -9723,7 +9729,7 @@
         <v>83</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9929,7 +9935,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10007,7 +10013,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ43">
         <v>2.24</v>
@@ -10216,7 +10222,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR44">
         <v>1.51</v>
@@ -10547,7 +10553,7 @@
         <v>97</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10834,7 +10840,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ47">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR47">
         <v>1.47</v>
@@ -11449,7 +11455,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ50">
         <v>1.12</v>
@@ -11577,7 +11583,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>2.1</v>
@@ -11783,7 +11789,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11861,7 +11867,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ52">
         <v>1.06</v>
@@ -11989,7 +11995,7 @@
         <v>83</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12195,7 +12201,7 @@
         <v>83</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -12482,7 +12488,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12607,7 +12613,7 @@
         <v>117</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13019,7 +13025,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13306,7 +13312,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
         <v>1.75</v>
@@ -13637,7 +13643,7 @@
         <v>120</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>2.2</v>
@@ -13715,10 +13721,10 @@
         <v>1.2</v>
       </c>
       <c r="AP61">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ61">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR61">
         <v>1.68</v>
@@ -13843,7 +13849,7 @@
         <v>121</v>
       </c>
       <c r="P62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14049,7 +14055,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14127,7 +14133,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ63">
         <v>0.88</v>
@@ -14255,7 +14261,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>4.33</v>
@@ -14461,7 +14467,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>1.91</v>
@@ -14667,7 +14673,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15079,7 +15085,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15285,7 +15291,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15366,7 +15372,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ69">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15569,10 +15575,10 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR70">
         <v>1.76</v>
@@ -15903,7 +15909,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16109,7 +16115,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16315,7 +16321,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16933,7 +16939,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>2.25</v>
@@ -17011,10 +17017,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ77">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR77">
         <v>1.56</v>
@@ -17220,7 +17226,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR78">
         <v>1.41</v>
@@ -17629,7 +17635,7 @@
         <v>2.25</v>
       </c>
       <c r="AP80">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ80">
         <v>2.24</v>
@@ -18375,7 +18381,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q84">
         <v>1.95</v>
@@ -18453,7 +18459,7 @@
         <v>1.43</v>
       </c>
       <c r="AP84">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ84">
         <v>1.29</v>
@@ -18581,7 +18587,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18787,7 +18793,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18865,7 +18871,7 @@
         <v>1.14</v>
       </c>
       <c r="AP86">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ86">
         <v>0.9399999999999999</v>
@@ -18993,7 +18999,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>1.8</v>
@@ -19074,7 +19080,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR87">
         <v>1.44</v>
@@ -19199,7 +19205,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>5.5</v>
@@ -19405,7 +19411,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>2.6</v>
@@ -19692,7 +19698,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ90">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR90">
         <v>1.57</v>
@@ -19817,7 +19823,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20023,7 +20029,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>1.73</v>
@@ -20101,7 +20107,7 @@
         <v>1.22</v>
       </c>
       <c r="AP92">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ92">
         <v>0.71</v>
@@ -20516,7 +20522,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR94">
         <v>1.58</v>
@@ -20641,7 +20647,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20847,7 +20853,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21259,7 +21265,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21337,7 +21343,7 @@
         <v>0.78</v>
       </c>
       <c r="AP98">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ98">
         <v>1.06</v>
@@ -21671,7 +21677,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21877,7 +21883,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21958,7 +21964,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR101">
         <v>1.44</v>
@@ -22083,7 +22089,7 @@
         <v>83</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>2.2</v>
@@ -22161,7 +22167,7 @@
         <v>1.3</v>
       </c>
       <c r="AP102">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ102">
         <v>1.29</v>
@@ -22289,7 +22295,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -22495,7 +22501,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q104">
         <v>1.67</v>
@@ -22701,7 +22707,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -22988,7 +22994,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ106">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR106">
         <v>1.5</v>
@@ -23113,7 +23119,7 @@
         <v>83</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>3.1</v>
@@ -23319,7 +23325,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23603,7 +23609,7 @@
         <v>1.1</v>
       </c>
       <c r="AP109">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ109">
         <v>0.9399999999999999</v>
@@ -23812,7 +23818,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR110">
         <v>1.48</v>
@@ -24221,7 +24227,7 @@
         <v>1.64</v>
       </c>
       <c r="AP112">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ112">
         <v>1.47</v>
@@ -24349,7 +24355,7 @@
         <v>83</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>5.5</v>
@@ -24555,7 +24561,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24761,7 +24767,7 @@
         <v>159</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24967,7 +24973,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>2.63</v>
@@ -25048,7 +25054,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ116">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR116">
         <v>1.52</v>
@@ -25585,7 +25591,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25663,7 +25669,7 @@
         <v>1.09</v>
       </c>
       <c r="AP119">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ119">
         <v>0.71</v>
@@ -25791,7 +25797,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>2.75</v>
@@ -25872,7 +25878,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -26203,7 +26209,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>3.6</v>
@@ -26487,7 +26493,7 @@
         <v>2.33</v>
       </c>
       <c r="AP123">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ123">
         <v>2.24</v>
@@ -26615,7 +26621,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26696,7 +26702,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ124">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR124">
         <v>1.46</v>
@@ -26821,7 +26827,7 @@
         <v>83</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -27027,7 +27033,7 @@
         <v>166</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27105,7 +27111,7 @@
         <v>1.17</v>
       </c>
       <c r="AP126">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ126">
         <v>0.88</v>
@@ -27233,7 +27239,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27439,7 +27445,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27851,7 +27857,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -28263,7 +28269,7 @@
         <v>83</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28469,7 +28475,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q133">
         <v>2.38</v>
@@ -28547,10 +28553,10 @@
         <v>0.75</v>
       </c>
       <c r="AP133">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR133">
         <v>1.45</v>
@@ -28675,7 +28681,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>3.25</v>
@@ -28881,7 +28887,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>4.75</v>
@@ -29293,7 +29299,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29705,7 +29711,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29786,7 +29792,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR139">
         <v>1.59</v>
@@ -29989,7 +29995,7 @@
         <v>1.07</v>
       </c>
       <c r="AP140">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ140">
         <v>1.12</v>
@@ -30117,7 +30123,7 @@
         <v>179</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30323,7 +30329,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q142">
         <v>1.91</v>
@@ -30404,7 +30410,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ142">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR142">
         <v>1.43</v>
@@ -30607,7 +30613,7 @@
         <v>0.93</v>
       </c>
       <c r="AP143">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ143">
         <v>0.9399999999999999</v>
@@ -30816,7 +30822,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ144">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR144">
         <v>1.35</v>
@@ -31019,7 +31025,7 @@
         <v>1.14</v>
       </c>
       <c r="AP145">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ145">
         <v>1.29</v>
@@ -31147,7 +31153,7 @@
         <v>83</v>
       </c>
       <c r="P146" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -32667,7 +32673,7 @@
         <v>2.33</v>
       </c>
       <c r="AP153">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ153">
         <v>2.24</v>
@@ -32795,7 +32801,7 @@
         <v>185</v>
       </c>
       <c r="P154" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q154">
         <v>3.6</v>
@@ -32876,7 +32882,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ154">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR154">
         <v>1.54</v>
@@ -33001,7 +33007,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33079,7 +33085,7 @@
         <v>0.93</v>
       </c>
       <c r="AP155">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ155">
         <v>0.88</v>
@@ -33207,7 +33213,7 @@
         <v>83</v>
       </c>
       <c r="P156" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33413,7 +33419,7 @@
         <v>83</v>
       </c>
       <c r="P157" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33494,7 +33500,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ157">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR157">
         <v>1.47</v>
@@ -33619,7 +33625,7 @@
         <v>83</v>
       </c>
       <c r="P158" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -34318,7 +34324,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR161">
         <v>1.74</v>
@@ -34443,7 +34449,7 @@
         <v>188</v>
       </c>
       <c r="P162" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q162">
         <v>3.4</v>
@@ -34649,7 +34655,7 @@
         <v>189</v>
       </c>
       <c r="P163" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q163">
         <v>2.75</v>
@@ -34855,7 +34861,7 @@
         <v>176</v>
       </c>
       <c r="P164" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q164">
         <v>5.5</v>
@@ -35267,7 +35273,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35473,7 +35479,7 @@
         <v>192</v>
       </c>
       <c r="P167" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35885,7 +35891,7 @@
         <v>194</v>
       </c>
       <c r="P169" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36042,6 +36048,418 @@
       </c>
       <c r="BP169">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7293414</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45423.54166666666</v>
+      </c>
+      <c r="F170">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>70</v>
+      </c>
+      <c r="H170" t="s">
+        <v>74</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>195</v>
+      </c>
+      <c r="P170" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q170">
+        <v>2.6</v>
+      </c>
+      <c r="R170">
+        <v>2.4</v>
+      </c>
+      <c r="S170">
+        <v>3.25</v>
+      </c>
+      <c r="T170">
+        <v>1.27</v>
+      </c>
+      <c r="U170">
+        <v>3.4</v>
+      </c>
+      <c r="V170">
+        <v>2.15</v>
+      </c>
+      <c r="W170">
+        <v>1.62</v>
+      </c>
+      <c r="X170">
+        <v>4.8</v>
+      </c>
+      <c r="Y170">
+        <v>1.15</v>
+      </c>
+      <c r="Z170">
+        <v>1.92</v>
+      </c>
+      <c r="AA170">
+        <v>3.65</v>
+      </c>
+      <c r="AB170">
+        <v>3.4</v>
+      </c>
+      <c r="AC170">
+        <v>1.02</v>
+      </c>
+      <c r="AD170">
+        <v>13.9</v>
+      </c>
+      <c r="AE170">
+        <v>1.16</v>
+      </c>
+      <c r="AF170">
+        <v>5.11</v>
+      </c>
+      <c r="AG170">
+        <v>1.5</v>
+      </c>
+      <c r="AH170">
+        <v>2.36</v>
+      </c>
+      <c r="AI170">
+        <v>1.5</v>
+      </c>
+      <c r="AJ170">
+        <v>2.5</v>
+      </c>
+      <c r="AK170">
+        <v>1.25</v>
+      </c>
+      <c r="AL170">
+        <v>1.27</v>
+      </c>
+      <c r="AM170">
+        <v>1.72</v>
+      </c>
+      <c r="AN170">
+        <v>1.56</v>
+      </c>
+      <c r="AO170">
+        <v>1.19</v>
+      </c>
+      <c r="AP170">
+        <v>1.53</v>
+      </c>
+      <c r="AQ170">
+        <v>1.18</v>
+      </c>
+      <c r="AR170">
+        <v>1.39</v>
+      </c>
+      <c r="AS170">
+        <v>1.4</v>
+      </c>
+      <c r="AT170">
+        <v>2.79</v>
+      </c>
+      <c r="AU170">
+        <v>2</v>
+      </c>
+      <c r="AV170">
+        <v>2</v>
+      </c>
+      <c r="AW170">
+        <v>4</v>
+      </c>
+      <c r="AX170">
+        <v>8</v>
+      </c>
+      <c r="AY170">
+        <v>6</v>
+      </c>
+      <c r="AZ170">
+        <v>10</v>
+      </c>
+      <c r="BA170">
+        <v>4</v>
+      </c>
+      <c r="BB170">
+        <v>7</v>
+      </c>
+      <c r="BC170">
+        <v>11</v>
+      </c>
+      <c r="BD170">
+        <v>1.57</v>
+      </c>
+      <c r="BE170">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF170">
+        <v>3</v>
+      </c>
+      <c r="BG170">
+        <v>1.25</v>
+      </c>
+      <c r="BH170">
+        <v>3.6</v>
+      </c>
+      <c r="BI170">
+        <v>1.32</v>
+      </c>
+      <c r="BJ170">
+        <v>2.98</v>
+      </c>
+      <c r="BK170">
+        <v>1.62</v>
+      </c>
+      <c r="BL170">
+        <v>2.24</v>
+      </c>
+      <c r="BM170">
+        <v>2.01</v>
+      </c>
+      <c r="BN170">
+        <v>1.79</v>
+      </c>
+      <c r="BO170">
+        <v>2.54</v>
+      </c>
+      <c r="BP170">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7293416</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45423.54166666666</v>
+      </c>
+      <c r="F171">
+        <v>34</v>
+      </c>
+      <c r="G171" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" t="s">
+        <v>75</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>3</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171" t="s">
+        <v>196</v>
+      </c>
+      <c r="P171" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q171">
+        <v>1.91</v>
+      </c>
+      <c r="R171">
+        <v>2.4</v>
+      </c>
+      <c r="S171">
+        <v>6</v>
+      </c>
+      <c r="T171">
+        <v>1.32</v>
+      </c>
+      <c r="U171">
+        <v>3.1</v>
+      </c>
+      <c r="V171">
+        <v>2.4</v>
+      </c>
+      <c r="W171">
+        <v>1.5</v>
+      </c>
+      <c r="X171">
+        <v>5.3</v>
+      </c>
+      <c r="Y171">
+        <v>1.12</v>
+      </c>
+      <c r="Z171">
+        <v>1.4</v>
+      </c>
+      <c r="AA171">
+        <v>4.33</v>
+      </c>
+      <c r="AB171">
+        <v>6.5</v>
+      </c>
+      <c r="AC171">
+        <v>1.03</v>
+      </c>
+      <c r="AD171">
+        <v>12</v>
+      </c>
+      <c r="AE171">
+        <v>1.21</v>
+      </c>
+      <c r="AF171">
+        <v>4.21</v>
+      </c>
+      <c r="AG171">
+        <v>1.66</v>
+      </c>
+      <c r="AH171">
+        <v>2.05</v>
+      </c>
+      <c r="AI171">
+        <v>1.91</v>
+      </c>
+      <c r="AJ171">
+        <v>1.8</v>
+      </c>
+      <c r="AK171">
+        <v>1.03</v>
+      </c>
+      <c r="AL171">
+        <v>1.18</v>
+      </c>
+      <c r="AM171">
+        <v>2.85</v>
+      </c>
+      <c r="AN171">
+        <v>2.63</v>
+      </c>
+      <c r="AO171">
+        <v>1</v>
+      </c>
+      <c r="AP171">
+        <v>2.65</v>
+      </c>
+      <c r="AQ171">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR171">
+        <v>1.48</v>
+      </c>
+      <c r="AS171">
+        <v>1.06</v>
+      </c>
+      <c r="AT171">
+        <v>2.54</v>
+      </c>
+      <c r="AU171">
+        <v>5</v>
+      </c>
+      <c r="AV171">
+        <v>2</v>
+      </c>
+      <c r="AW171">
+        <v>3</v>
+      </c>
+      <c r="AX171">
+        <v>2</v>
+      </c>
+      <c r="AY171">
+        <v>8</v>
+      </c>
+      <c r="AZ171">
+        <v>4</v>
+      </c>
+      <c r="BA171">
+        <v>5</v>
+      </c>
+      <c r="BB171">
+        <v>4</v>
+      </c>
+      <c r="BC171">
+        <v>9</v>
+      </c>
+      <c r="BD171">
+        <v>1.24</v>
+      </c>
+      <c r="BE171">
+        <v>8.9</v>
+      </c>
+      <c r="BF171">
+        <v>5.53</v>
+      </c>
+      <c r="BG171">
+        <v>0</v>
+      </c>
+      <c r="BH171">
+        <v>0</v>
+      </c>
+      <c r="BI171">
+        <v>1.3</v>
+      </c>
+      <c r="BJ171">
+        <v>3.08</v>
+      </c>
+      <c r="BK171">
+        <v>2.1</v>
+      </c>
+      <c r="BL171">
+        <v>2.34</v>
+      </c>
+      <c r="BM171">
+        <v>1.95</v>
+      </c>
+      <c r="BN171">
+        <v>1.84</v>
+      </c>
+      <c r="BO171">
+        <v>2.48</v>
+      </c>
+      <c r="BP171">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,15 @@
     <t>['6', '58', '70']</t>
   </si>
   <si>
+    <t>['7', '16', '45+2', '84', '88', '90+3']</t>
+  </si>
+  <si>
+    <t>['26', '46', '75', '83']</t>
+  </si>
+  <si>
+    <t>['7', '13']</t>
+  </si>
+  <si>
     <t>['6', '67']</t>
   </si>
   <si>
@@ -869,6 +878,18 @@
   </si>
   <si>
     <t>['5', '74', '90+4']</t>
+  </si>
+  <si>
+    <t>['51', '62', '67']</t>
+  </si>
+  <si>
+    <t>['7', '21', '44', '56']</t>
+  </si>
+  <si>
+    <t>['30', '51']</t>
+  </si>
+  <si>
+    <t>['17', '53']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ2">
         <v>0.9399999999999999</v>
@@ -1773,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ3">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1979,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2107,7 +2128,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2185,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ5">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2313,7 +2334,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2394,7 +2415,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ6">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2597,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ7">
         <v>1.47</v>
@@ -3343,7 +3364,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>2.63</v>
@@ -3424,7 +3445,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ11">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3627,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ12">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR12">
         <v>1.29</v>
@@ -3755,7 +3776,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>2.75</v>
@@ -3833,10 +3854,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ13">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.24</v>
@@ -4167,7 +4188,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4245,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>1.12</v>
@@ -4454,7 +4475,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ16">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.43</v>
@@ -4657,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ17">
         <v>1.47</v>
@@ -5072,7 +5093,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ19">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR19">
         <v>2.13</v>
@@ -5197,7 +5218,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5278,7 +5299,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ20">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR20">
         <v>1.18</v>
@@ -5403,7 +5424,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5481,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ21">
         <v>0.9399999999999999</v>
@@ -5609,7 +5630,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5690,7 +5711,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ22">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR22">
         <v>1.33</v>
@@ -5815,7 +5836,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>3.5</v>
@@ -5893,7 +5914,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ23">
         <v>0.9399999999999999</v>
@@ -6021,7 +6042,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6099,7 +6120,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ24">
         <v>1.47</v>
@@ -6227,7 +6248,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -6308,7 +6329,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ25">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6433,7 +6454,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6639,7 +6660,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6717,7 +6738,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ27">
         <v>1.29</v>
@@ -6845,7 +6866,7 @@
         <v>83</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>1.95</v>
@@ -6923,10 +6944,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.87</v>
@@ -7132,7 +7153,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ29">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR29">
         <v>1.14</v>
@@ -7335,10 +7356,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.76</v>
@@ -7875,7 +7896,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7953,10 +7974,10 @@
         <v>2.33</v>
       </c>
       <c r="AP33">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ33">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR33">
         <v>1.39</v>
@@ -8081,7 +8102,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -8159,10 +8180,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ34">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR34">
         <v>2.01</v>
@@ -8365,7 +8386,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ35">
         <v>0.9399999999999999</v>
@@ -8574,7 +8595,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ36">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.65</v>
@@ -8699,7 +8720,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>2.88</v>
@@ -8777,10 +8798,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR37">
         <v>1.66</v>
@@ -8905,7 +8926,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -9111,7 +9132,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>1.73</v>
@@ -9189,10 +9210,10 @@
         <v>0.33</v>
       </c>
       <c r="AP39">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ39">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9395,7 +9416,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ40">
         <v>1.29</v>
@@ -9604,7 +9625,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ41">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.23</v>
@@ -9729,7 +9750,7 @@
         <v>83</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9935,7 +9956,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10013,10 +10034,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ43">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -10425,10 +10446,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ45">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.94</v>
@@ -10553,7 +10574,7 @@
         <v>97</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10837,10 +10858,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ47">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR47">
         <v>1.47</v>
@@ -11046,7 +11067,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR48">
         <v>1.13</v>
@@ -11252,7 +11273,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ49">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11455,7 +11476,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ50">
         <v>1.12</v>
@@ -11583,7 +11604,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>2.1</v>
@@ -11661,7 +11682,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>1.29</v>
@@ -11789,7 +11810,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11867,10 +11888,10 @@
         <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ52">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -11995,7 +12016,7 @@
         <v>83</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12201,7 +12222,7 @@
         <v>83</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -12282,7 +12303,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ54">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR54">
         <v>1.51</v>
@@ -12485,7 +12506,7 @@
         <v>0.25</v>
       </c>
       <c r="AP55">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ55">
         <v>0.9399999999999999</v>
@@ -12613,7 +12634,7 @@
         <v>117</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12900,7 +12921,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ57">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13025,7 +13046,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13309,7 +13330,7 @@
         <v>0.4</v>
       </c>
       <c r="AP59">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>0.9399999999999999</v>
@@ -13643,7 +13664,7 @@
         <v>120</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>2.2</v>
@@ -13721,10 +13742,10 @@
         <v>1.2</v>
       </c>
       <c r="AP61">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ61">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR61">
         <v>1.68</v>
@@ -13849,7 +13870,7 @@
         <v>121</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13927,10 +13948,10 @@
         <v>0.83</v>
       </c>
       <c r="AP62">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ62">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.36</v>
@@ -14055,7 +14076,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14133,10 +14154,10 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ63">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.61</v>
@@ -14261,7 +14282,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>4.33</v>
@@ -14339,7 +14360,7 @@
         <v>2.17</v>
       </c>
       <c r="AP64">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
         <v>1.47</v>
@@ -14467,7 +14488,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>1.91</v>
@@ -14548,7 +14569,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ65">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR65">
         <v>1.32</v>
@@ -14673,7 +14694,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14751,10 +14772,10 @@
         <v>2.33</v>
       </c>
       <c r="AP66">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ66">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR66">
         <v>1.76</v>
@@ -15085,7 +15106,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15291,7 +15312,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15372,7 +15393,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ69">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15575,7 +15596,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ70">
         <v>0.9399999999999999</v>
@@ -15909,7 +15930,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15987,7 +16008,7 @@
         <v>1.29</v>
       </c>
       <c r="AP72">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ72">
         <v>1.12</v>
@@ -16115,7 +16136,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16321,7 +16342,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16402,7 +16423,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ74">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.62</v>
@@ -16605,10 +16626,10 @@
         <v>2.43</v>
       </c>
       <c r="AP75">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR75">
         <v>1.61</v>
@@ -16811,10 +16832,10 @@
         <v>1.57</v>
       </c>
       <c r="AP76">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ76">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR76">
         <v>1.7</v>
@@ -16939,7 +16960,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>2.25</v>
@@ -17017,10 +17038,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ77">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR77">
         <v>1.56</v>
@@ -17226,7 +17247,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR78">
         <v>1.41</v>
@@ -17429,10 +17450,10 @@
         <v>1.38</v>
       </c>
       <c r="AP79">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ79">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR79">
         <v>1.35</v>
@@ -17635,10 +17656,10 @@
         <v>2.25</v>
       </c>
       <c r="AP80">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ80">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR80">
         <v>1.78</v>
@@ -17841,10 +17862,10 @@
         <v>1.38</v>
       </c>
       <c r="AP81">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.55</v>
@@ -18047,7 +18068,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ82">
         <v>1.12</v>
@@ -18256,7 +18277,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ83">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.45</v>
@@ -18381,7 +18402,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>1.95</v>
@@ -18459,7 +18480,7 @@
         <v>1.43</v>
       </c>
       <c r="AP84">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ84">
         <v>1.29</v>
@@ -18587,7 +18608,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18668,7 +18689,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ85">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.56</v>
@@ -18793,7 +18814,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18871,7 +18892,7 @@
         <v>1.14</v>
       </c>
       <c r="AP86">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ86">
         <v>0.9399999999999999</v>
@@ -18999,7 +19020,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>1.8</v>
@@ -19205,7 +19226,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>5.5</v>
@@ -19411,7 +19432,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>2.6</v>
@@ -19695,10 +19716,10 @@
         <v>0.89</v>
       </c>
       <c r="AP90">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR90">
         <v>1.57</v>
@@ -19823,7 +19844,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19904,7 +19925,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ91">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR91">
         <v>1.64</v>
@@ -20029,7 +20050,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>1.73</v>
@@ -20107,10 +20128,10 @@
         <v>1.22</v>
       </c>
       <c r="AP92">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ92">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR92">
         <v>1.6</v>
@@ -20313,7 +20334,7 @@
         <v>1.78</v>
       </c>
       <c r="AP93">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ93">
         <v>1.47</v>
@@ -20647,7 +20668,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20853,7 +20874,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20931,10 +20952,10 @@
         <v>1.33</v>
       </c>
       <c r="AP96">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ96">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.34</v>
@@ -21265,7 +21286,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21343,10 +21364,10 @@
         <v>0.78</v>
       </c>
       <c r="AP98">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ98">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.64</v>
@@ -21677,7 +21698,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21883,7 +21904,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22089,7 +22110,7 @@
         <v>83</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>2.2</v>
@@ -22167,7 +22188,7 @@
         <v>1.3</v>
       </c>
       <c r="AP102">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ102">
         <v>1.29</v>
@@ -22295,7 +22316,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -22373,7 +22394,7 @@
         <v>1.7</v>
       </c>
       <c r="AP103">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ103">
         <v>1.47</v>
@@ -22501,7 +22522,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>1.67</v>
@@ -22582,7 +22603,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ104">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -22707,7 +22728,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -22785,10 +22806,10 @@
         <v>0.7</v>
       </c>
       <c r="AP105">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.58</v>
@@ -22994,7 +23015,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ106">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR106">
         <v>1.5</v>
@@ -23119,7 +23140,7 @@
         <v>83</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>3.1</v>
@@ -23325,7 +23346,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23406,7 +23427,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ108">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR108">
         <v>1.65</v>
@@ -23609,7 +23630,7 @@
         <v>1.1</v>
       </c>
       <c r="AP109">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ109">
         <v>0.9399999999999999</v>
@@ -24021,10 +24042,10 @@
         <v>1.2</v>
       </c>
       <c r="AP111">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ111">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.58</v>
@@ -24227,7 +24248,7 @@
         <v>1.64</v>
       </c>
       <c r="AP112">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ112">
         <v>1.47</v>
@@ -24355,7 +24376,7 @@
         <v>83</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>5.5</v>
@@ -24433,10 +24454,10 @@
         <v>2.27</v>
       </c>
       <c r="AP113">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ113">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR113">
         <v>1.32</v>
@@ -24561,7 +24582,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24767,7 +24788,7 @@
         <v>159</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24848,7 +24869,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ115">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.44</v>
@@ -24973,7 +24994,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>2.63</v>
@@ -25051,10 +25072,10 @@
         <v>0.73</v>
       </c>
       <c r="AP116">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ116">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR116">
         <v>1.52</v>
@@ -25260,7 +25281,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ117">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25463,7 +25484,7 @@
         <v>1.18</v>
       </c>
       <c r="AP118">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
         <v>1.12</v>
@@ -25591,7 +25612,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25669,10 +25690,10 @@
         <v>1.09</v>
       </c>
       <c r="AP119">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ119">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR119">
         <v>1.55</v>
@@ -25797,7 +25818,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>2.75</v>
@@ -26209,7 +26230,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>3.6</v>
@@ -26287,7 +26308,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ122">
         <v>0.9399999999999999</v>
@@ -26493,10 +26514,10 @@
         <v>2.33</v>
       </c>
       <c r="AP123">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ123">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR123">
         <v>1.49</v>
@@ -26621,7 +26642,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26702,7 +26723,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ124">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR124">
         <v>1.46</v>
@@ -26827,7 +26848,7 @@
         <v>83</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26905,10 +26926,10 @@
         <v>0.83</v>
       </c>
       <c r="AP125">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ125">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.45</v>
@@ -27033,7 +27054,7 @@
         <v>166</v>
       </c>
       <c r="P126" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27111,10 +27132,10 @@
         <v>1.17</v>
       </c>
       <c r="AP126">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ126">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>1.55</v>
@@ -27239,7 +27260,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27317,7 +27338,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ127">
         <v>1.29</v>
@@ -27445,7 +27466,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27729,10 +27750,10 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR129">
         <v>1.59</v>
@@ -27857,7 +27878,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -27938,7 +27959,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ130">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.62</v>
@@ -28269,7 +28290,7 @@
         <v>83</v>
       </c>
       <c r="P132" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28350,7 +28371,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR132">
         <v>1.49</v>
@@ -28475,7 +28496,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q133">
         <v>2.38</v>
@@ -28553,7 +28574,7 @@
         <v>0.75</v>
       </c>
       <c r="AP133">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ133">
         <v>0.9399999999999999</v>
@@ -28681,7 +28702,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q134">
         <v>3.25</v>
@@ -28759,7 +28780,7 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ134">
         <v>0.9399999999999999</v>
@@ -28887,7 +28908,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>4.75</v>
@@ -28968,7 +28989,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ135">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29299,7 +29320,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29586,7 +29607,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ138">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR138">
         <v>1.46</v>
@@ -29711,7 +29732,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29789,7 +29810,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP139">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
         <v>0.9399999999999999</v>
@@ -29995,7 +30016,7 @@
         <v>1.07</v>
       </c>
       <c r="AP140">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ140">
         <v>1.12</v>
@@ -30123,7 +30144,7 @@
         <v>179</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30329,7 +30350,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q142">
         <v>1.91</v>
@@ -30410,7 +30431,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ142">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR142">
         <v>1.43</v>
@@ -30613,7 +30634,7 @@
         <v>0.93</v>
       </c>
       <c r="AP143">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ143">
         <v>0.9399999999999999</v>
@@ -30819,10 +30840,10 @@
         <v>0.93</v>
       </c>
       <c r="AP144">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ144">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR144">
         <v>1.35</v>
@@ -31025,7 +31046,7 @@
         <v>1.14</v>
       </c>
       <c r="AP145">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ145">
         <v>1.29</v>
@@ -31153,7 +31174,7 @@
         <v>83</v>
       </c>
       <c r="P146" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -31234,7 +31255,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ146">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR146">
         <v>1.37</v>
@@ -31440,7 +31461,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.74</v>
@@ -31643,7 +31664,7 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ148">
         <v>1.12</v>
@@ -31849,10 +31870,10 @@
         <v>0.86</v>
       </c>
       <c r="AP149">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ149">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR149">
         <v>1.49</v>
@@ -32055,7 +32076,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>1.47</v>
@@ -32264,7 +32285,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ151">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.43</v>
@@ -32470,7 +32491,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ152">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR152">
         <v>1.6</v>
@@ -32673,10 +32694,10 @@
         <v>2.33</v>
       </c>
       <c r="AP153">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ153">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR153">
         <v>1.52</v>
@@ -32801,7 +32822,7 @@
         <v>185</v>
       </c>
       <c r="P154" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q154">
         <v>3.6</v>
@@ -32879,7 +32900,7 @@
         <v>0.86</v>
       </c>
       <c r="AP154">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ154">
         <v>0.9399999999999999</v>
@@ -33007,7 +33028,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33085,10 +33106,10 @@
         <v>0.93</v>
       </c>
       <c r="AP155">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ155">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR155">
         <v>1.37</v>
@@ -33213,7 +33234,7 @@
         <v>83</v>
       </c>
       <c r="P156" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33419,7 +33440,7 @@
         <v>83</v>
       </c>
       <c r="P157" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33500,7 +33521,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ157">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR157">
         <v>1.47</v>
@@ -33625,7 +33646,7 @@
         <v>83</v>
       </c>
       <c r="P158" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -33703,7 +33724,7 @@
         <v>1.07</v>
       </c>
       <c r="AP158">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ158">
         <v>1.29</v>
@@ -34118,7 +34139,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ160">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR160">
         <v>1.62</v>
@@ -34449,7 +34470,7 @@
         <v>188</v>
       </c>
       <c r="P162" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q162">
         <v>3.4</v>
@@ -34527,7 +34548,7 @@
         <v>1</v>
       </c>
       <c r="AP162">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ162">
         <v>1.12</v>
@@ -34655,7 +34676,7 @@
         <v>189</v>
       </c>
       <c r="P163" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q163">
         <v>2.75</v>
@@ -34733,10 +34754,10 @@
         <v>1.06</v>
       </c>
       <c r="AP163">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ163">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR163">
         <v>1.39</v>
@@ -34861,7 +34882,7 @@
         <v>176</v>
       </c>
       <c r="P164" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q164">
         <v>5.5</v>
@@ -35148,7 +35169,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ165">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.5</v>
@@ -35273,7 +35294,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35479,7 +35500,7 @@
         <v>192</v>
       </c>
       <c r="P167" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35557,10 +35578,10 @@
         <v>2.19</v>
       </c>
       <c r="AP167">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR167">
         <v>1.57</v>
@@ -35766,7 +35787,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ168">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -35891,7 +35912,7 @@
         <v>194</v>
       </c>
       <c r="P169" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36097,7 +36118,7 @@
         <v>195</v>
       </c>
       <c r="P170" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q170">
         <v>2.6</v>
@@ -36175,10 +36196,10 @@
         <v>1.19</v>
       </c>
       <c r="AP170">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ170">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR170">
         <v>1.39</v>
@@ -36381,7 +36402,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ171">
         <v>0.9399999999999999</v>
@@ -36460,6 +36481,1036 @@
       </c>
       <c r="BP171">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7293422</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45429.63541666666</v>
+      </c>
+      <c r="F172">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s">
+        <v>71</v>
+      </c>
+      <c r="H172" t="s">
+        <v>74</v>
+      </c>
+      <c r="I172">
+        <v>3</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>3</v>
+      </c>
+      <c r="L172">
+        <v>6</v>
+      </c>
+      <c r="M172">
+        <v>3</v>
+      </c>
+      <c r="N172">
+        <v>9</v>
+      </c>
+      <c r="O172" t="s">
+        <v>197</v>
+      </c>
+      <c r="P172" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q172">
+        <v>1.91</v>
+      </c>
+      <c r="R172">
+        <v>2.6</v>
+      </c>
+      <c r="S172">
+        <v>4.75</v>
+      </c>
+      <c r="T172">
+        <v>1.23</v>
+      </c>
+      <c r="U172">
+        <v>3.9</v>
+      </c>
+      <c r="V172">
+        <v>2.08</v>
+      </c>
+      <c r="W172">
+        <v>1.7</v>
+      </c>
+      <c r="X172">
+        <v>4.45</v>
+      </c>
+      <c r="Y172">
+        <v>1.18</v>
+      </c>
+      <c r="Z172">
+        <v>1.48</v>
+      </c>
+      <c r="AA172">
+        <v>4.5</v>
+      </c>
+      <c r="AB172">
+        <v>5.25</v>
+      </c>
+      <c r="AC172">
+        <v>1.01</v>
+      </c>
+      <c r="AD172">
+        <v>11</v>
+      </c>
+      <c r="AE172">
+        <v>1.1</v>
+      </c>
+      <c r="AF172">
+        <v>5.5</v>
+      </c>
+      <c r="AG172">
+        <v>1.44</v>
+      </c>
+      <c r="AH172">
+        <v>2.63</v>
+      </c>
+      <c r="AI172">
+        <v>1.53</v>
+      </c>
+      <c r="AJ172">
+        <v>2.38</v>
+      </c>
+      <c r="AK172">
+        <v>1.13</v>
+      </c>
+      <c r="AL172">
+        <v>1.16</v>
+      </c>
+      <c r="AM172">
+        <v>2.2</v>
+      </c>
+      <c r="AN172">
+        <v>2.65</v>
+      </c>
+      <c r="AO172">
+        <v>1.18</v>
+      </c>
+      <c r="AP172">
+        <v>2.67</v>
+      </c>
+      <c r="AQ172">
+        <v>1.11</v>
+      </c>
+      <c r="AR172">
+        <v>1.47</v>
+      </c>
+      <c r="AS172">
+        <v>1.39</v>
+      </c>
+      <c r="AT172">
+        <v>2.86</v>
+      </c>
+      <c r="AU172">
+        <v>3</v>
+      </c>
+      <c r="AV172">
+        <v>2</v>
+      </c>
+      <c r="AW172">
+        <v>13</v>
+      </c>
+      <c r="AX172">
+        <v>7</v>
+      </c>
+      <c r="AY172">
+        <v>16</v>
+      </c>
+      <c r="AZ172">
+        <v>9</v>
+      </c>
+      <c r="BA172">
+        <v>5</v>
+      </c>
+      <c r="BB172">
+        <v>8</v>
+      </c>
+      <c r="BC172">
+        <v>13</v>
+      </c>
+      <c r="BD172">
+        <v>1.32</v>
+      </c>
+      <c r="BE172">
+        <v>10.25</v>
+      </c>
+      <c r="BF172">
+        <v>3.8</v>
+      </c>
+      <c r="BG172">
+        <v>0</v>
+      </c>
+      <c r="BH172">
+        <v>0</v>
+      </c>
+      <c r="BI172">
+        <v>1.28</v>
+      </c>
+      <c r="BJ172">
+        <v>3.2</v>
+      </c>
+      <c r="BK172">
+        <v>2.25</v>
+      </c>
+      <c r="BL172">
+        <v>2.38</v>
+      </c>
+      <c r="BM172">
+        <v>1.92</v>
+      </c>
+      <c r="BN172">
+        <v>1.88</v>
+      </c>
+      <c r="BO172">
+        <v>2.42</v>
+      </c>
+      <c r="BP172">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7293418</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45429.63541666666</v>
+      </c>
+      <c r="F173">
+        <v>35</v>
+      </c>
+      <c r="G173" t="s">
+        <v>72</v>
+      </c>
+      <c r="H173" t="s">
+        <v>79</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>3</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>4</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>83</v>
+      </c>
+      <c r="P173" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>2.38</v>
+      </c>
+      <c r="S173">
+        <v>2.88</v>
+      </c>
+      <c r="T173">
+        <v>1.28</v>
+      </c>
+      <c r="U173">
+        <v>3.46</v>
+      </c>
+      <c r="V173">
+        <v>2.31</v>
+      </c>
+      <c r="W173">
+        <v>1.56</v>
+      </c>
+      <c r="X173">
+        <v>5.25</v>
+      </c>
+      <c r="Y173">
+        <v>1.14</v>
+      </c>
+      <c r="Z173">
+        <v>2.75</v>
+      </c>
+      <c r="AA173">
+        <v>3.2</v>
+      </c>
+      <c r="AB173">
+        <v>2.5</v>
+      </c>
+      <c r="AC173">
+        <v>1.03</v>
+      </c>
+      <c r="AD173">
+        <v>12</v>
+      </c>
+      <c r="AE173">
+        <v>1.18</v>
+      </c>
+      <c r="AF173">
+        <v>4.5</v>
+      </c>
+      <c r="AG173">
+        <v>1.57</v>
+      </c>
+      <c r="AH173">
+        <v>2.35</v>
+      </c>
+      <c r="AI173">
+        <v>1.44</v>
+      </c>
+      <c r="AJ173">
+        <v>2.63</v>
+      </c>
+      <c r="AK173">
+        <v>1.52</v>
+      </c>
+      <c r="AL173">
+        <v>1.22</v>
+      </c>
+      <c r="AM173">
+        <v>1.47</v>
+      </c>
+      <c r="AN173">
+        <v>1.59</v>
+      </c>
+      <c r="AO173">
+        <v>0.88</v>
+      </c>
+      <c r="AP173">
+        <v>1.5</v>
+      </c>
+      <c r="AQ173">
+        <v>1</v>
+      </c>
+      <c r="AR173">
+        <v>1.52</v>
+      </c>
+      <c r="AS173">
+        <v>1.36</v>
+      </c>
+      <c r="AT173">
+        <v>2.88</v>
+      </c>
+      <c r="AU173">
+        <v>5</v>
+      </c>
+      <c r="AV173">
+        <v>7</v>
+      </c>
+      <c r="AW173">
+        <v>5</v>
+      </c>
+      <c r="AX173">
+        <v>8</v>
+      </c>
+      <c r="AY173">
+        <v>10</v>
+      </c>
+      <c r="AZ173">
+        <v>15</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>6</v>
+      </c>
+      <c r="BC173">
+        <v>6</v>
+      </c>
+      <c r="BD173">
+        <v>1.81</v>
+      </c>
+      <c r="BE173">
+        <v>8.9</v>
+      </c>
+      <c r="BF173">
+        <v>2.21</v>
+      </c>
+      <c r="BG173">
+        <v>0</v>
+      </c>
+      <c r="BH173">
+        <v>0</v>
+      </c>
+      <c r="BI173">
+        <v>1.3</v>
+      </c>
+      <c r="BJ173">
+        <v>3.08</v>
+      </c>
+      <c r="BK173">
+        <v>1.91</v>
+      </c>
+      <c r="BL173">
+        <v>2.29</v>
+      </c>
+      <c r="BM173">
+        <v>1.97</v>
+      </c>
+      <c r="BN173">
+        <v>1.83</v>
+      </c>
+      <c r="BO173">
+        <v>2.48</v>
+      </c>
+      <c r="BP173">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7293419</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45429.63541666666</v>
+      </c>
+      <c r="F174">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s">
+        <v>73</v>
+      </c>
+      <c r="H174" t="s">
+        <v>77</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>83</v>
+      </c>
+      <c r="P174" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q174">
+        <v>7</v>
+      </c>
+      <c r="R174">
+        <v>2.5</v>
+      </c>
+      <c r="S174">
+        <v>1.8</v>
+      </c>
+      <c r="T174">
+        <v>1.33</v>
+      </c>
+      <c r="U174">
+        <v>3.14</v>
+      </c>
+      <c r="V174">
+        <v>2.55</v>
+      </c>
+      <c r="W174">
+        <v>1.46</v>
+      </c>
+      <c r="X174">
+        <v>6.05</v>
+      </c>
+      <c r="Y174">
+        <v>1.11</v>
+      </c>
+      <c r="Z174">
+        <v>9</v>
+      </c>
+      <c r="AA174">
+        <v>4.75</v>
+      </c>
+      <c r="AB174">
+        <v>1.33</v>
+      </c>
+      <c r="AC174">
+        <v>1.02</v>
+      </c>
+      <c r="AD174">
+        <v>10.5</v>
+      </c>
+      <c r="AE174">
+        <v>1.22</v>
+      </c>
+      <c r="AF174">
+        <v>4</v>
+      </c>
+      <c r="AG174">
+        <v>1.62</v>
+      </c>
+      <c r="AH174">
+        <v>2.25</v>
+      </c>
+      <c r="AI174">
+        <v>2</v>
+      </c>
+      <c r="AJ174">
+        <v>1.73</v>
+      </c>
+      <c r="AK174">
+        <v>2.7</v>
+      </c>
+      <c r="AL174">
+        <v>1.15</v>
+      </c>
+      <c r="AM174">
+        <v>1.06</v>
+      </c>
+      <c r="AN174">
+        <v>1.12</v>
+      </c>
+      <c r="AO174">
+        <v>2.24</v>
+      </c>
+      <c r="AP174">
+        <v>1.06</v>
+      </c>
+      <c r="AQ174">
+        <v>2.28</v>
+      </c>
+      <c r="AR174">
+        <v>1.5</v>
+      </c>
+      <c r="AS174">
+        <v>1.62</v>
+      </c>
+      <c r="AT174">
+        <v>3.12</v>
+      </c>
+      <c r="AU174">
+        <v>2</v>
+      </c>
+      <c r="AV174">
+        <v>7</v>
+      </c>
+      <c r="AW174">
+        <v>4</v>
+      </c>
+      <c r="AX174">
+        <v>4</v>
+      </c>
+      <c r="AY174">
+        <v>6</v>
+      </c>
+      <c r="AZ174">
+        <v>11</v>
+      </c>
+      <c r="BA174">
+        <v>4</v>
+      </c>
+      <c r="BB174">
+        <v>4</v>
+      </c>
+      <c r="BC174">
+        <v>8</v>
+      </c>
+      <c r="BD174">
+        <v>3.78</v>
+      </c>
+      <c r="BE174">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF174">
+        <v>1.33</v>
+      </c>
+      <c r="BG174">
+        <v>1.19</v>
+      </c>
+      <c r="BH174">
+        <v>3.98</v>
+      </c>
+      <c r="BI174">
+        <v>1.37</v>
+      </c>
+      <c r="BJ174">
+        <v>2.75</v>
+      </c>
+      <c r="BK174">
+        <v>1.72</v>
+      </c>
+      <c r="BL174">
+        <v>2.08</v>
+      </c>
+      <c r="BM174">
+        <v>2.13</v>
+      </c>
+      <c r="BN174">
+        <v>1.69</v>
+      </c>
+      <c r="BO174">
+        <v>2.75</v>
+      </c>
+      <c r="BP174">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7293420</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45429.63541666666</v>
+      </c>
+      <c r="F175">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s">
+        <v>70</v>
+      </c>
+      <c r="H175" t="s">
+        <v>76</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>4</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>198</v>
+      </c>
+      <c r="P175" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q175">
+        <v>2.5</v>
+      </c>
+      <c r="R175">
+        <v>2.5</v>
+      </c>
+      <c r="S175">
+        <v>3.25</v>
+      </c>
+      <c r="T175">
+        <v>1.29</v>
+      </c>
+      <c r="U175">
+        <v>3.4</v>
+      </c>
+      <c r="V175">
+        <v>2.36</v>
+      </c>
+      <c r="W175">
+        <v>1.55</v>
+      </c>
+      <c r="X175">
+        <v>5.45</v>
+      </c>
+      <c r="Y175">
+        <v>1.13</v>
+      </c>
+      <c r="Z175">
+        <v>2.05</v>
+      </c>
+      <c r="AA175">
+        <v>3.7</v>
+      </c>
+      <c r="AB175">
+        <v>3.2</v>
+      </c>
+      <c r="AC175">
+        <v>1.03</v>
+      </c>
+      <c r="AD175">
+        <v>12</v>
+      </c>
+      <c r="AE175">
+        <v>1.16</v>
+      </c>
+      <c r="AF175">
+        <v>4.33</v>
+      </c>
+      <c r="AG175">
+        <v>1.44</v>
+      </c>
+      <c r="AH175">
+        <v>2.63</v>
+      </c>
+      <c r="AI175">
+        <v>1.44</v>
+      </c>
+      <c r="AJ175">
+        <v>2.63</v>
+      </c>
+      <c r="AK175">
+        <v>1.25</v>
+      </c>
+      <c r="AL175">
+        <v>1.24</v>
+      </c>
+      <c r="AM175">
+        <v>1.68</v>
+      </c>
+      <c r="AN175">
+        <v>1.53</v>
+      </c>
+      <c r="AO175">
+        <v>1.06</v>
+      </c>
+      <c r="AP175">
+        <v>1.61</v>
+      </c>
+      <c r="AQ175">
+        <v>1</v>
+      </c>
+      <c r="AR175">
+        <v>1.36</v>
+      </c>
+      <c r="AS175">
+        <v>1.47</v>
+      </c>
+      <c r="AT175">
+        <v>2.83</v>
+      </c>
+      <c r="AU175">
+        <v>0</v>
+      </c>
+      <c r="AV175">
+        <v>2</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>9</v>
+      </c>
+      <c r="AY175">
+        <v>5</v>
+      </c>
+      <c r="AZ175">
+        <v>11</v>
+      </c>
+      <c r="BA175">
+        <v>4</v>
+      </c>
+      <c r="BB175">
+        <v>5</v>
+      </c>
+      <c r="BC175">
+        <v>9</v>
+      </c>
+      <c r="BD175">
+        <v>1.71</v>
+      </c>
+      <c r="BE175">
+        <v>8.9</v>
+      </c>
+      <c r="BF175">
+        <v>2.38</v>
+      </c>
+      <c r="BG175">
+        <v>0</v>
+      </c>
+      <c r="BH175">
+        <v>0</v>
+      </c>
+      <c r="BI175">
+        <v>1.22</v>
+      </c>
+      <c r="BJ175">
+        <v>3.65</v>
+      </c>
+      <c r="BK175">
+        <v>1.41</v>
+      </c>
+      <c r="BL175">
+        <v>2.6</v>
+      </c>
+      <c r="BM175">
+        <v>1.74</v>
+      </c>
+      <c r="BN175">
+        <v>2.05</v>
+      </c>
+      <c r="BO175">
+        <v>2.16</v>
+      </c>
+      <c r="BP175">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7293421</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45429.63541666666</v>
+      </c>
+      <c r="F176">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>75</v>
+      </c>
+      <c r="H176" t="s">
+        <v>78</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>3</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176" t="s">
+        <v>199</v>
+      </c>
+      <c r="P176" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q176">
+        <v>1.83</v>
+      </c>
+      <c r="R176">
+        <v>2.5</v>
+      </c>
+      <c r="S176">
+        <v>6</v>
+      </c>
+      <c r="T176">
+        <v>1.31</v>
+      </c>
+      <c r="U176">
+        <v>3.26</v>
+      </c>
+      <c r="V176">
+        <v>2.43</v>
+      </c>
+      <c r="W176">
+        <v>1.52</v>
+      </c>
+      <c r="X176">
+        <v>5.7</v>
+      </c>
+      <c r="Y176">
+        <v>1.12</v>
+      </c>
+      <c r="Z176">
+        <v>1.42</v>
+      </c>
+      <c r="AA176">
+        <v>4.5</v>
+      </c>
+      <c r="AB176">
+        <v>7</v>
+      </c>
+      <c r="AC176">
+        <v>1.01</v>
+      </c>
+      <c r="AD176">
+        <v>11</v>
+      </c>
+      <c r="AE176">
+        <v>1.18</v>
+      </c>
+      <c r="AF176">
+        <v>4.15</v>
+      </c>
+      <c r="AG176">
+        <v>1.57</v>
+      </c>
+      <c r="AH176">
+        <v>2.35</v>
+      </c>
+      <c r="AI176">
+        <v>1.8</v>
+      </c>
+      <c r="AJ176">
+        <v>1.91</v>
+      </c>
+      <c r="AK176">
+        <v>1.16</v>
+      </c>
+      <c r="AL176">
+        <v>1.19</v>
+      </c>
+      <c r="AM176">
+        <v>2</v>
+      </c>
+      <c r="AN176">
+        <v>1.24</v>
+      </c>
+      <c r="AO176">
+        <v>0.71</v>
+      </c>
+      <c r="AP176">
+        <v>1.22</v>
+      </c>
+      <c r="AQ176">
+        <v>0.72</v>
+      </c>
+      <c r="AR176">
+        <v>1.43</v>
+      </c>
+      <c r="AS176">
+        <v>1.17</v>
+      </c>
+      <c r="AT176">
+        <v>2.6</v>
+      </c>
+      <c r="AU176">
+        <v>4</v>
+      </c>
+      <c r="AV176">
+        <v>5</v>
+      </c>
+      <c r="AW176">
+        <v>8</v>
+      </c>
+      <c r="AX176">
+        <v>7</v>
+      </c>
+      <c r="AY176">
+        <v>12</v>
+      </c>
+      <c r="AZ176">
+        <v>12</v>
+      </c>
+      <c r="BA176">
+        <v>2</v>
+      </c>
+      <c r="BB176">
+        <v>7</v>
+      </c>
+      <c r="BC176">
+        <v>9</v>
+      </c>
+      <c r="BD176">
+        <v>1.48</v>
+      </c>
+      <c r="BE176">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF176">
+        <v>2.96</v>
+      </c>
+      <c r="BG176">
+        <v>0</v>
+      </c>
+      <c r="BH176">
+        <v>0</v>
+      </c>
+      <c r="BI176">
+        <v>1.27</v>
+      </c>
+      <c r="BJ176">
+        <v>3.28</v>
+      </c>
+      <c r="BK176">
+        <v>1.52</v>
+      </c>
+      <c r="BL176">
+        <v>2.43</v>
+      </c>
+      <c r="BM176">
+        <v>1.88</v>
+      </c>
+      <c r="BN176">
+        <v>1.92</v>
+      </c>
+      <c r="BO176">
+        <v>2.34</v>
+      </c>
+      <c r="BP176">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,18 @@
     <t>['7', '13']</t>
   </si>
   <si>
+    <t>['18', '32', '48', '61']</t>
+  </si>
+  <si>
+    <t>['87', '90+6']</t>
+  </si>
+  <si>
+    <t>['37', '80']</t>
+  </si>
+  <si>
+    <t>['41', '50', '81']</t>
+  </si>
+  <si>
     <t>['6', '67']</t>
   </si>
   <si>
@@ -890,6 +902,18 @@
   </si>
   <si>
     <t>['17', '53']</t>
+  </si>
+  <si>
+    <t>['36', '71', '80']</t>
+  </si>
+  <si>
+    <t>['40', '73']</t>
+  </si>
+  <si>
+    <t>['20', '51']</t>
+  </si>
+  <si>
+    <t>['47', '69', '79']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1591,7 +1615,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ2">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2128,7 +2152,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2334,7 +2358,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2412,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ6">
         <v>2.28</v>
@@ -2621,7 +2645,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ7">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2824,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ8">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3030,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ9">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3236,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3364,7 +3388,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>2.63</v>
@@ -3442,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
         <v>1.11</v>
@@ -3776,7 +3800,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>2.75</v>
@@ -4060,10 +4084,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR14">
         <v>1.29</v>
@@ -4188,7 +4212,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4269,7 +4293,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR15">
         <v>1.59</v>
@@ -4472,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4681,7 +4705,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ17">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR17">
         <v>1.51</v>
@@ -4884,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ18">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR18">
         <v>1.07</v>
@@ -5090,7 +5114,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ19">
         <v>2.28</v>
@@ -5218,7 +5242,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5296,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ20">
         <v>1.11</v>
@@ -5424,7 +5448,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5505,7 +5529,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ21">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR21">
         <v>2.02</v>
@@ -5630,7 +5654,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5708,7 +5732,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ22">
         <v>2.28</v>
@@ -5836,7 +5860,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>3.5</v>
@@ -5917,7 +5941,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ23">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR23">
         <v>1.41</v>
@@ -6042,7 +6066,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6123,7 +6147,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ24">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6248,7 +6272,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -6326,7 +6350,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6454,7 +6478,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6532,10 +6556,10 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ26">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR26">
         <v>1.56</v>
@@ -6660,7 +6684,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6741,7 +6765,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ27">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR27">
         <v>1.45</v>
@@ -6866,7 +6890,7 @@
         <v>83</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>1.95</v>
@@ -7150,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ29">
         <v>0.72</v>
@@ -7562,10 +7586,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ31">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR31">
         <v>1.42</v>
@@ -7768,10 +7792,10 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ32">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR32">
         <v>1.52</v>
@@ -7896,7 +7920,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8102,7 +8126,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -8389,7 +8413,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ35">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR35">
         <v>1.6</v>
@@ -8592,7 +8616,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8720,7 +8744,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>2.88</v>
@@ -8926,7 +8950,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -9004,10 +9028,10 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ38">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR38">
         <v>1.44</v>
@@ -9132,7 +9156,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>1.73</v>
@@ -9419,7 +9443,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ40">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR40">
         <v>1.27</v>
@@ -9622,7 +9646,7 @@
         <v>2.25</v>
       </c>
       <c r="AP41">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9750,7 +9774,7 @@
         <v>83</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9828,10 +9852,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ42">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR42">
         <v>1.56</v>
@@ -9956,7 +9980,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10240,10 +10264,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ44">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR44">
         <v>1.51</v>
@@ -10574,7 +10598,7 @@
         <v>97</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10652,10 +10676,10 @@
         <v>2.25</v>
       </c>
       <c r="AP46">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ46">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR46">
         <v>1.39</v>
@@ -11064,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ48">
         <v>0.72</v>
@@ -11270,7 +11294,7 @@
         <v>1.8</v>
       </c>
       <c r="AP49">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11479,7 +11503,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ50">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
         <v>1.54</v>
@@ -11604,7 +11628,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>2.1</v>
@@ -11685,7 +11709,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR51">
         <v>1.82</v>
@@ -11810,7 +11834,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -12016,7 +12040,7 @@
         <v>83</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12094,10 +12118,10 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ53">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR53">
         <v>1.77</v>
@@ -12222,7 +12246,7 @@
         <v>83</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -12300,7 +12324,7 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ54">
         <v>2.28</v>
@@ -12509,7 +12533,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ55">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12634,7 +12658,7 @@
         <v>117</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12712,10 +12736,10 @@
         <v>1.4</v>
       </c>
       <c r="AP56">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ56">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR56">
         <v>1.34</v>
@@ -12918,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ57">
         <v>0.72</v>
@@ -13046,7 +13070,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13124,10 +13148,10 @@
         <v>1.2</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR58">
         <v>1.51</v>
@@ -13333,7 +13357,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR59">
         <v>1.75</v>
@@ -13536,10 +13560,10 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ60">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR60">
         <v>1.53</v>
@@ -13664,7 +13688,7 @@
         <v>120</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q61">
         <v>2.2</v>
@@ -13870,7 +13894,7 @@
         <v>121</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14076,7 +14100,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14282,7 +14306,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>4.33</v>
@@ -14363,7 +14387,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR64">
         <v>1.68</v>
@@ -14488,7 +14512,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>1.91</v>
@@ -14566,7 +14590,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ65">
         <v>0.72</v>
@@ -14694,7 +14718,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14978,10 +15002,10 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15106,7 +15130,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15184,10 +15208,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ68">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15312,7 +15336,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15390,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ69">
         <v>1.11</v>
@@ -15599,7 +15623,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ70">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR70">
         <v>1.76</v>
@@ -15802,10 +15826,10 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ71">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR71">
         <v>1.38</v>
@@ -15930,7 +15954,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16011,7 +16035,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ72">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.31</v>
@@ -16136,7 +16160,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16214,10 +16238,10 @@
         <v>1.86</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ73">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR73">
         <v>1.43</v>
@@ -16342,7 +16366,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16420,7 +16444,7 @@
         <v>1.43</v>
       </c>
       <c r="AP74">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16960,7 +16984,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>2.25</v>
@@ -17244,7 +17268,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ78">
         <v>1.11</v>
@@ -18071,7 +18095,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ82">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18274,7 +18298,7 @@
         <v>0.86</v>
       </c>
       <c r="AP83">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18402,7 +18426,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>1.95</v>
@@ -18483,7 +18507,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ84">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR84">
         <v>1.64</v>
@@ -18608,7 +18632,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18686,7 +18710,7 @@
         <v>0.88</v>
       </c>
       <c r="AP85">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18814,7 +18838,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18895,7 +18919,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ86">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -19020,7 +19044,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>1.8</v>
@@ -19098,10 +19122,10 @@
         <v>0.43</v>
       </c>
       <c r="AP87">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ87">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR87">
         <v>1.44</v>
@@ -19226,7 +19250,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>5.5</v>
@@ -19304,10 +19328,10 @@
         <v>1.63</v>
       </c>
       <c r="AP88">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ88">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR88">
         <v>1.42</v>
@@ -19432,7 +19456,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>2.6</v>
@@ -19510,10 +19534,10 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ89">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR89">
         <v>1.64</v>
@@ -19844,7 +19868,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19922,7 +19946,7 @@
         <v>2.11</v>
       </c>
       <c r="AP91">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ91">
         <v>2.28</v>
@@ -20050,7 +20074,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>1.73</v>
@@ -20337,7 +20361,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ93">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR93">
         <v>1.61</v>
@@ -20540,10 +20564,10 @@
         <v>0.38</v>
       </c>
       <c r="AP94">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ94">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR94">
         <v>1.58</v>
@@ -20668,7 +20692,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20746,10 +20770,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ95">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR95">
         <v>1.42</v>
@@ -20874,7 +20898,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21158,10 +21182,10 @@
         <v>1.22</v>
       </c>
       <c r="AP97">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ97">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21286,7 +21310,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21570,10 +21594,10 @@
         <v>1.44</v>
       </c>
       <c r="AP99">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ99">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR99">
         <v>1.44</v>
@@ -21698,7 +21722,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21776,10 +21800,10 @@
         <v>1.11</v>
       </c>
       <c r="AP100">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ100">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR100">
         <v>1.64</v>
@@ -21904,7 +21928,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21982,10 +22006,10 @@
         <v>0.33</v>
       </c>
       <c r="AP101">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ101">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR101">
         <v>1.44</v>
@@ -22110,7 +22134,7 @@
         <v>83</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q102">
         <v>2.2</v>
@@ -22191,7 +22215,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR102">
         <v>1.56</v>
@@ -22316,7 +22340,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -22397,7 +22421,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ103">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR103">
         <v>1.33</v>
@@ -22522,7 +22546,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>1.67</v>
@@ -22600,7 +22624,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ104">
         <v>0.72</v>
@@ -22728,7 +22752,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -23012,7 +23036,7 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ106">
         <v>1.11</v>
@@ -23140,7 +23164,7 @@
         <v>83</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>3.1</v>
@@ -23218,10 +23242,10 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ107">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR107">
         <v>1.46</v>
@@ -23346,7 +23370,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23424,7 +23448,7 @@
         <v>2.2</v>
       </c>
       <c r="AP108">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ108">
         <v>2.28</v>
@@ -23633,7 +23657,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ109">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR109">
         <v>1.55</v>
@@ -23836,10 +23860,10 @@
         <v>0.6</v>
       </c>
       <c r="AP110">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ110">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR110">
         <v>1.48</v>
@@ -24251,7 +24275,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ112">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR112">
         <v>1.56</v>
@@ -24376,7 +24400,7 @@
         <v>83</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>5.5</v>
@@ -24582,7 +24606,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24660,10 +24684,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ114">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
         <v>1.59</v>
@@ -24788,7 +24812,7 @@
         <v>159</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24866,7 +24890,7 @@
         <v>0.64</v>
       </c>
       <c r="AP115">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ115">
         <v>1</v>
@@ -24994,7 +25018,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>2.63</v>
@@ -25278,7 +25302,7 @@
         <v>1.18</v>
       </c>
       <c r="AP117">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25487,7 +25511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR118">
         <v>1.56</v>
@@ -25612,7 +25636,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25818,7 +25842,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q120">
         <v>2.75</v>
@@ -25896,10 +25920,10 @@
         <v>0.82</v>
       </c>
       <c r="AP120">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ120">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -26102,10 +26126,10 @@
         <v>1.45</v>
       </c>
       <c r="AP121">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ121">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR121">
         <v>1.45</v>
@@ -26230,7 +26254,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>3.6</v>
@@ -26311,7 +26335,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ122">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR122">
         <v>1.34</v>
@@ -26642,7 +26666,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26720,7 +26744,7 @@
         <v>0.92</v>
       </c>
       <c r="AP124">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ124">
         <v>1.11</v>
@@ -26848,7 +26872,7 @@
         <v>83</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -27054,7 +27078,7 @@
         <v>166</v>
       </c>
       <c r="P126" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27260,7 +27284,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27341,7 +27365,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ127">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR127">
         <v>1.34</v>
@@ -27466,7 +27490,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27544,10 +27568,10 @@
         <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ128">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR128">
         <v>1.45</v>
@@ -27878,7 +27902,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -27956,7 +27980,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ130">
         <v>1</v>
@@ -28162,10 +28186,10 @@
         <v>1.08</v>
       </c>
       <c r="AP131">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ131">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR131">
         <v>1.75</v>
@@ -28290,7 +28314,7 @@
         <v>83</v>
       </c>
       <c r="P132" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28368,7 +28392,7 @@
         <v>2.23</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ132">
         <v>2.28</v>
@@ -28496,7 +28520,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>2.38</v>
@@ -28577,7 +28601,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ133">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR133">
         <v>1.45</v>
@@ -28702,7 +28726,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>3.25</v>
@@ -28783,7 +28807,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ134">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR134">
         <v>1.45</v>
@@ -28908,7 +28932,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>4.75</v>
@@ -28986,7 +29010,7 @@
         <v>1.08</v>
       </c>
       <c r="AP135">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ135">
         <v>1</v>
@@ -29192,10 +29216,10 @@
         <v>1.62</v>
       </c>
       <c r="AP136">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ136">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR136">
         <v>1.6</v>
@@ -29320,7 +29344,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29398,10 +29422,10 @@
         <v>1.08</v>
       </c>
       <c r="AP137">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ137">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR137">
         <v>1.39</v>
@@ -29604,7 +29628,7 @@
         <v>0.92</v>
       </c>
       <c r="AP138">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ138">
         <v>0.72</v>
@@ -29732,7 +29756,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29813,7 +29837,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR139">
         <v>1.59</v>
@@ -30019,7 +30043,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ140">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR140">
         <v>1.48</v>
@@ -30144,7 +30168,7 @@
         <v>179</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30222,10 +30246,10 @@
         <v>1.23</v>
       </c>
       <c r="AP141">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ141">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR141">
         <v>1.75</v>
@@ -30350,7 +30374,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>1.91</v>
@@ -30428,7 +30452,7 @@
         <v>0.92</v>
       </c>
       <c r="AP142">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ142">
         <v>1.11</v>
@@ -30637,7 +30661,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ143">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR143">
         <v>1.42</v>
@@ -31049,7 +31073,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ145">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR145">
         <v>1.5</v>
@@ -31174,7 +31198,7 @@
         <v>83</v>
       </c>
       <c r="P146" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -31252,7 +31276,7 @@
         <v>2.29</v>
       </c>
       <c r="AP146">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ146">
         <v>2.28</v>
@@ -31458,7 +31482,7 @@
         <v>1.14</v>
       </c>
       <c r="AP147">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ147">
         <v>1</v>
@@ -31667,7 +31691,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ148">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR148">
         <v>1.35</v>
@@ -32079,7 +32103,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR150">
         <v>1.57</v>
@@ -32282,7 +32306,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ151">
         <v>1</v>
@@ -32488,7 +32512,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32822,7 +32846,7 @@
         <v>185</v>
       </c>
       <c r="P154" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q154">
         <v>3.6</v>
@@ -32903,7 +32927,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ154">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR154">
         <v>1.54</v>
@@ -33028,7 +33052,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33234,7 +33258,7 @@
         <v>83</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33312,10 +33336,10 @@
         <v>0.87</v>
       </c>
       <c r="AP156">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ156">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR156">
         <v>1.37</v>
@@ -33440,7 +33464,7 @@
         <v>83</v>
       </c>
       <c r="P157" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33518,7 +33542,7 @@
         <v>1.07</v>
       </c>
       <c r="AP157">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ157">
         <v>1.11</v>
@@ -33646,7 +33670,7 @@
         <v>83</v>
       </c>
       <c r="P158" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -33727,7 +33751,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ158">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR158">
         <v>1.56</v>
@@ -33930,10 +33954,10 @@
         <v>1.4</v>
       </c>
       <c r="AP159">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ159">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR159">
         <v>1.55</v>
@@ -34136,7 +34160,7 @@
         <v>0.8</v>
       </c>
       <c r="AP160">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ160">
         <v>0.72</v>
@@ -34342,10 +34366,10 @@
         <v>0.87</v>
       </c>
       <c r="AP161">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ161">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR161">
         <v>1.74</v>
@@ -34470,7 +34494,7 @@
         <v>188</v>
       </c>
       <c r="P162" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q162">
         <v>3.4</v>
@@ -34551,7 +34575,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ162">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR162">
         <v>1.51</v>
@@ -34676,7 +34700,7 @@
         <v>189</v>
       </c>
       <c r="P163" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>2.75</v>
@@ -34882,7 +34906,7 @@
         <v>176</v>
       </c>
       <c r="P164" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q164">
         <v>5.5</v>
@@ -34960,10 +34984,10 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ164">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR164">
         <v>1.41</v>
@@ -35166,7 +35190,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP165">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35294,7 +35318,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35372,10 +35396,10 @@
         <v>1</v>
       </c>
       <c r="AP166">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ166">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR166">
         <v>1.65</v>
@@ -35500,7 +35524,7 @@
         <v>192</v>
       </c>
       <c r="P167" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35784,7 +35808,7 @@
         <v>0.75</v>
       </c>
       <c r="AP168">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ168">
         <v>0.72</v>
@@ -35912,7 +35936,7 @@
         <v>194</v>
       </c>
       <c r="P169" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -35990,10 +36014,10 @@
         <v>1.19</v>
       </c>
       <c r="AP169">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ169">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR169">
         <v>1.52</v>
@@ -36118,7 +36142,7 @@
         <v>195</v>
       </c>
       <c r="P170" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q170">
         <v>2.6</v>
@@ -36405,7 +36429,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ171">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR171">
         <v>1.48</v>
@@ -36530,7 +36554,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q172">
         <v>1.91</v>
@@ -36736,7 +36760,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36942,7 +36966,7 @@
         <v>83</v>
       </c>
       <c r="P174" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37354,7 +37378,7 @@
         <v>199</v>
       </c>
       <c r="P176" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q176">
         <v>1.83</v>
@@ -37511,6 +37535,1036 @@
       </c>
       <c r="BP176">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7293425</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45432.38541666666</v>
+      </c>
+      <c r="F177">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
+        <v>76</v>
+      </c>
+      <c r="H177" t="s">
+        <v>72</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>3</v>
+      </c>
+      <c r="L177">
+        <v>4</v>
+      </c>
+      <c r="M177">
+        <v>3</v>
+      </c>
+      <c r="N177">
+        <v>7</v>
+      </c>
+      <c r="O177" t="s">
+        <v>200</v>
+      </c>
+      <c r="P177" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q177">
+        <v>2.6</v>
+      </c>
+      <c r="R177">
+        <v>2.5</v>
+      </c>
+      <c r="S177">
+        <v>3.1</v>
+      </c>
+      <c r="T177">
+        <v>1.25</v>
+      </c>
+      <c r="U177">
+        <v>3.85</v>
+      </c>
+      <c r="V177">
+        <v>2.21</v>
+      </c>
+      <c r="W177">
+        <v>1.61</v>
+      </c>
+      <c r="X177">
+        <v>4.33</v>
+      </c>
+      <c r="Y177">
+        <v>1.18</v>
+      </c>
+      <c r="Z177">
+        <v>2.15</v>
+      </c>
+      <c r="AA177">
+        <v>3.7</v>
+      </c>
+      <c r="AB177">
+        <v>2.9</v>
+      </c>
+      <c r="AC177">
+        <v>1.01</v>
+      </c>
+      <c r="AD177">
+        <v>10.75</v>
+      </c>
+      <c r="AE177">
+        <v>1.01</v>
+      </c>
+      <c r="AF177">
+        <v>2.5</v>
+      </c>
+      <c r="AG177">
+        <v>1.4</v>
+      </c>
+      <c r="AH177">
+        <v>2.75</v>
+      </c>
+      <c r="AI177">
+        <v>1.36</v>
+      </c>
+      <c r="AJ177">
+        <v>3</v>
+      </c>
+      <c r="AK177">
+        <v>1.47</v>
+      </c>
+      <c r="AL177">
+        <v>1.26</v>
+      </c>
+      <c r="AM177">
+        <v>1.61</v>
+      </c>
+      <c r="AN177">
+        <v>1.29</v>
+      </c>
+      <c r="AO177">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP177">
+        <v>1.39</v>
+      </c>
+      <c r="AQ177">
+        <v>0.89</v>
+      </c>
+      <c r="AR177">
+        <v>1.51</v>
+      </c>
+      <c r="AS177">
+        <v>1.47</v>
+      </c>
+      <c r="AT177">
+        <v>2.98</v>
+      </c>
+      <c r="AU177">
+        <v>0</v>
+      </c>
+      <c r="AV177">
+        <v>5</v>
+      </c>
+      <c r="AW177">
+        <v>3</v>
+      </c>
+      <c r="AX177">
+        <v>3</v>
+      </c>
+      <c r="AY177">
+        <v>3</v>
+      </c>
+      <c r="AZ177">
+        <v>8</v>
+      </c>
+      <c r="BA177">
+        <v>6</v>
+      </c>
+      <c r="BB177">
+        <v>5</v>
+      </c>
+      <c r="BC177">
+        <v>11</v>
+      </c>
+      <c r="BD177">
+        <v>1.72</v>
+      </c>
+      <c r="BE177">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF177">
+        <v>2.33</v>
+      </c>
+      <c r="BG177">
+        <v>0</v>
+      </c>
+      <c r="BH177">
+        <v>0</v>
+      </c>
+      <c r="BI177">
+        <v>0</v>
+      </c>
+      <c r="BJ177">
+        <v>0</v>
+      </c>
+      <c r="BK177">
+        <v>1.37</v>
+      </c>
+      <c r="BL177">
+        <v>2.75</v>
+      </c>
+      <c r="BM177">
+        <v>1.64</v>
+      </c>
+      <c r="BN177">
+        <v>2.07</v>
+      </c>
+      <c r="BO177">
+        <v>2.03</v>
+      </c>
+      <c r="BP177">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7293426</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45432.38541666666</v>
+      </c>
+      <c r="F178">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s">
+        <v>74</v>
+      </c>
+      <c r="H178" t="s">
+        <v>73</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" t="s">
+        <v>201</v>
+      </c>
+      <c r="P178" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q178">
+        <v>2.25</v>
+      </c>
+      <c r="R178">
+        <v>2.4</v>
+      </c>
+      <c r="S178">
+        <v>4</v>
+      </c>
+      <c r="T178">
+        <v>1.32</v>
+      </c>
+      <c r="U178">
+        <v>3.2</v>
+      </c>
+      <c r="V178">
+        <v>2.48</v>
+      </c>
+      <c r="W178">
+        <v>1.5</v>
+      </c>
+      <c r="X178">
+        <v>5.8</v>
+      </c>
+      <c r="Y178">
+        <v>1.11</v>
+      </c>
+      <c r="Z178">
+        <v>1.75</v>
+      </c>
+      <c r="AA178">
+        <v>4.1</v>
+      </c>
+      <c r="AB178">
+        <v>3.8</v>
+      </c>
+      <c r="AC178">
+        <v>1.03</v>
+      </c>
+      <c r="AD178">
+        <v>4.2</v>
+      </c>
+      <c r="AE178">
+        <v>1.21</v>
+      </c>
+      <c r="AF178">
+        <v>4.3</v>
+      </c>
+      <c r="AG178">
+        <v>1.5</v>
+      </c>
+      <c r="AH178">
+        <v>2.5</v>
+      </c>
+      <c r="AI178">
+        <v>1.53</v>
+      </c>
+      <c r="AJ178">
+        <v>2.38</v>
+      </c>
+      <c r="AK178">
+        <v>1.2</v>
+      </c>
+      <c r="AL178">
+        <v>1.23</v>
+      </c>
+      <c r="AM178">
+        <v>1.95</v>
+      </c>
+      <c r="AN178">
+        <v>1.65</v>
+      </c>
+      <c r="AO178">
+        <v>1.29</v>
+      </c>
+      <c r="AP178">
+        <v>1.61</v>
+      </c>
+      <c r="AQ178">
+        <v>1.28</v>
+      </c>
+      <c r="AR178">
+        <v>1.72</v>
+      </c>
+      <c r="AS178">
+        <v>1.15</v>
+      </c>
+      <c r="AT178">
+        <v>2.87</v>
+      </c>
+      <c r="AU178">
+        <v>4</v>
+      </c>
+      <c r="AV178">
+        <v>2</v>
+      </c>
+      <c r="AW178">
+        <v>10</v>
+      </c>
+      <c r="AX178">
+        <v>6</v>
+      </c>
+      <c r="AY178">
+        <v>14</v>
+      </c>
+      <c r="AZ178">
+        <v>8</v>
+      </c>
+      <c r="BA178">
+        <v>12</v>
+      </c>
+      <c r="BB178">
+        <v>2</v>
+      </c>
+      <c r="BC178">
+        <v>14</v>
+      </c>
+      <c r="BD178">
+        <v>1.5</v>
+      </c>
+      <c r="BE178">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF178">
+        <v>2.91</v>
+      </c>
+      <c r="BG178">
+        <v>0</v>
+      </c>
+      <c r="BH178">
+        <v>0</v>
+      </c>
+      <c r="BI178">
+        <v>1.36</v>
+      </c>
+      <c r="BJ178">
+        <v>2.79</v>
+      </c>
+      <c r="BK178">
+        <v>2.25</v>
+      </c>
+      <c r="BL178">
+        <v>2.09</v>
+      </c>
+      <c r="BM178">
+        <v>2.04</v>
+      </c>
+      <c r="BN178">
+        <v>1.66</v>
+      </c>
+      <c r="BO178">
+        <v>2.67</v>
+      </c>
+      <c r="BP178">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7293423</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45432.38541666666</v>
+      </c>
+      <c r="F179">
+        <v>36</v>
+      </c>
+      <c r="G179" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s">
+        <v>70</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179" t="s">
+        <v>202</v>
+      </c>
+      <c r="P179" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q179">
+        <v>4.33</v>
+      </c>
+      <c r="R179">
+        <v>2.6</v>
+      </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
+        <v>1.28</v>
+      </c>
+      <c r="U179">
+        <v>3.4</v>
+      </c>
+      <c r="V179">
+        <v>2.3</v>
+      </c>
+      <c r="W179">
+        <v>1.56</v>
+      </c>
+      <c r="X179">
+        <v>4.85</v>
+      </c>
+      <c r="Y179">
+        <v>1.16</v>
+      </c>
+      <c r="Z179">
+        <v>4.75</v>
+      </c>
+      <c r="AA179">
+        <v>4.2</v>
+      </c>
+      <c r="AB179">
+        <v>1.57</v>
+      </c>
+      <c r="AC179">
+        <v>1.01</v>
+      </c>
+      <c r="AD179">
+        <v>12</v>
+      </c>
+      <c r="AE179">
+        <v>1.01</v>
+      </c>
+      <c r="AF179">
+        <v>2.32</v>
+      </c>
+      <c r="AG179">
+        <v>1.4</v>
+      </c>
+      <c r="AH179">
+        <v>2.75</v>
+      </c>
+      <c r="AI179">
+        <v>1.5</v>
+      </c>
+      <c r="AJ179">
+        <v>2.5</v>
+      </c>
+      <c r="AK179">
+        <v>2.2</v>
+      </c>
+      <c r="AL179">
+        <v>1.12</v>
+      </c>
+      <c r="AM179">
+        <v>1.25</v>
+      </c>
+      <c r="AN179">
+        <v>0.71</v>
+      </c>
+      <c r="AO179">
+        <v>1.12</v>
+      </c>
+      <c r="AP179">
+        <v>0.72</v>
+      </c>
+      <c r="AQ179">
+        <v>1.11</v>
+      </c>
+      <c r="AR179">
+        <v>1.4</v>
+      </c>
+      <c r="AS179">
+        <v>1.51</v>
+      </c>
+      <c r="AT179">
+        <v>2.91</v>
+      </c>
+      <c r="AU179">
+        <v>8</v>
+      </c>
+      <c r="AV179">
+        <v>5</v>
+      </c>
+      <c r="AW179">
+        <v>9</v>
+      </c>
+      <c r="AX179">
+        <v>10</v>
+      </c>
+      <c r="AY179">
+        <v>17</v>
+      </c>
+      <c r="AZ179">
+        <v>15</v>
+      </c>
+      <c r="BA179">
+        <v>9</v>
+      </c>
+      <c r="BB179">
+        <v>3</v>
+      </c>
+      <c r="BC179">
+        <v>12</v>
+      </c>
+      <c r="BD179">
+        <v>2.43</v>
+      </c>
+      <c r="BE179">
+        <v>9</v>
+      </c>
+      <c r="BF179">
+        <v>1.68</v>
+      </c>
+      <c r="BG179">
+        <v>0</v>
+      </c>
+      <c r="BH179">
+        <v>0</v>
+      </c>
+      <c r="BI179">
+        <v>1.3</v>
+      </c>
+      <c r="BJ179">
+        <v>3.08</v>
+      </c>
+      <c r="BK179">
+        <v>2</v>
+      </c>
+      <c r="BL179">
+        <v>2.23</v>
+      </c>
+      <c r="BM179">
+        <v>1.91</v>
+      </c>
+      <c r="BN179">
+        <v>1.76</v>
+      </c>
+      <c r="BO179">
+        <v>2.48</v>
+      </c>
+      <c r="BP179">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7293424</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45432.38541666666</v>
+      </c>
+      <c r="F180">
+        <v>36</v>
+      </c>
+      <c r="G180" t="s">
+        <v>77</v>
+      </c>
+      <c r="H180" t="s">
+        <v>75</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>3</v>
+      </c>
+      <c r="O180" t="s">
+        <v>203</v>
+      </c>
+      <c r="P180" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q180">
+        <v>1.8</v>
+      </c>
+      <c r="R180">
+        <v>2.5</v>
+      </c>
+      <c r="S180">
+        <v>6</v>
+      </c>
+      <c r="T180">
+        <v>1.3</v>
+      </c>
+      <c r="U180">
+        <v>3.2</v>
+      </c>
+      <c r="V180">
+        <v>2.36</v>
+      </c>
+      <c r="W180">
+        <v>1.54</v>
+      </c>
+      <c r="X180">
+        <v>5</v>
+      </c>
+      <c r="Y180">
+        <v>1.14</v>
+      </c>
+      <c r="Z180">
+        <v>1.36</v>
+      </c>
+      <c r="AA180">
+        <v>5</v>
+      </c>
+      <c r="AB180">
+        <v>7</v>
+      </c>
+      <c r="AC180">
+        <v>1.01</v>
+      </c>
+      <c r="AD180">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE180">
+        <v>1.22</v>
+      </c>
+      <c r="AF180">
+        <v>4.3</v>
+      </c>
+      <c r="AG180">
+        <v>1.5</v>
+      </c>
+      <c r="AH180">
+        <v>2.5</v>
+      </c>
+      <c r="AI180">
+        <v>1.83</v>
+      </c>
+      <c r="AJ180">
+        <v>1.83</v>
+      </c>
+      <c r="AK180">
+        <v>1.1</v>
+      </c>
+      <c r="AL180">
+        <v>1.07</v>
+      </c>
+      <c r="AM180">
+        <v>2.48</v>
+      </c>
+      <c r="AN180">
+        <v>2.06</v>
+      </c>
+      <c r="AO180">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP180">
+        <v>2.11</v>
+      </c>
+      <c r="AQ180">
+        <v>0.89</v>
+      </c>
+      <c r="AR180">
+        <v>1.52</v>
+      </c>
+      <c r="AS180">
+        <v>1.04</v>
+      </c>
+      <c r="AT180">
+        <v>2.56</v>
+      </c>
+      <c r="AU180">
+        <v>2</v>
+      </c>
+      <c r="AV180">
+        <v>2</v>
+      </c>
+      <c r="AW180">
+        <v>2</v>
+      </c>
+      <c r="AX180">
+        <v>7</v>
+      </c>
+      <c r="AY180">
+        <v>4</v>
+      </c>
+      <c r="AZ180">
+        <v>9</v>
+      </c>
+      <c r="BA180">
+        <v>5</v>
+      </c>
+      <c r="BB180">
+        <v>4</v>
+      </c>
+      <c r="BC180">
+        <v>9</v>
+      </c>
+      <c r="BD180">
+        <v>1.21</v>
+      </c>
+      <c r="BE180">
+        <v>11.25</v>
+      </c>
+      <c r="BF180">
+        <v>4.95</v>
+      </c>
+      <c r="BG180">
+        <v>0</v>
+      </c>
+      <c r="BH180">
+        <v>0</v>
+      </c>
+      <c r="BI180">
+        <v>1.36</v>
+      </c>
+      <c r="BJ180">
+        <v>2.78</v>
+      </c>
+      <c r="BK180">
+        <v>2.38</v>
+      </c>
+      <c r="BL180">
+        <v>2.05</v>
+      </c>
+      <c r="BM180">
+        <v>2.07</v>
+      </c>
+      <c r="BN180">
+        <v>1.64</v>
+      </c>
+      <c r="BO180">
+        <v>2.71</v>
+      </c>
+      <c r="BP180">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7293427</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45432.38541666666</v>
+      </c>
+      <c r="F181">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>71</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>3</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>83</v>
+      </c>
+      <c r="P181" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q181">
+        <v>3.4</v>
+      </c>
+      <c r="R181">
+        <v>2.4</v>
+      </c>
+      <c r="S181">
+        <v>2.6</v>
+      </c>
+      <c r="T181">
+        <v>1.32</v>
+      </c>
+      <c r="U181">
+        <v>3.5</v>
+      </c>
+      <c r="V181">
+        <v>2.28</v>
+      </c>
+      <c r="W181">
+        <v>1.51</v>
+      </c>
+      <c r="X181">
+        <v>5</v>
+      </c>
+      <c r="Y181">
+        <v>1.13</v>
+      </c>
+      <c r="Z181">
+        <v>3.1</v>
+      </c>
+      <c r="AA181">
+        <v>3.8</v>
+      </c>
+      <c r="AB181">
+        <v>2.05</v>
+      </c>
+      <c r="AC181">
+        <v>1.03</v>
+      </c>
+      <c r="AD181">
+        <v>3.2</v>
+      </c>
+      <c r="AE181">
+        <v>1.19</v>
+      </c>
+      <c r="AF181">
+        <v>3.2</v>
+      </c>
+      <c r="AG181">
+        <v>1.53</v>
+      </c>
+      <c r="AH181">
+        <v>2.38</v>
+      </c>
+      <c r="AI181">
+        <v>1.5</v>
+      </c>
+      <c r="AJ181">
+        <v>2.5</v>
+      </c>
+      <c r="AK181">
+        <v>1.98</v>
+      </c>
+      <c r="AL181">
+        <v>1.26</v>
+      </c>
+      <c r="AM181">
+        <v>1.25</v>
+      </c>
+      <c r="AN181">
+        <v>1.53</v>
+      </c>
+      <c r="AO181">
+        <v>1.47</v>
+      </c>
+      <c r="AP181">
+        <v>1.44</v>
+      </c>
+      <c r="AQ181">
+        <v>1.56</v>
+      </c>
+      <c r="AR181">
+        <v>1.73</v>
+      </c>
+      <c r="AS181">
+        <v>1.48</v>
+      </c>
+      <c r="AT181">
+        <v>3.21</v>
+      </c>
+      <c r="AU181">
+        <v>8</v>
+      </c>
+      <c r="AV181">
+        <v>9</v>
+      </c>
+      <c r="AW181">
+        <v>11</v>
+      </c>
+      <c r="AX181">
+        <v>9</v>
+      </c>
+      <c r="AY181">
+        <v>19</v>
+      </c>
+      <c r="AZ181">
+        <v>18</v>
+      </c>
+      <c r="BA181">
+        <v>7</v>
+      </c>
+      <c r="BB181">
+        <v>4</v>
+      </c>
+      <c r="BC181">
+        <v>11</v>
+      </c>
+      <c r="BD181">
+        <v>2.38</v>
+      </c>
+      <c r="BE181">
+        <v>8.5</v>
+      </c>
+      <c r="BF181">
+        <v>1.73</v>
+      </c>
+      <c r="BG181">
+        <v>1.2</v>
+      </c>
+      <c r="BH181">
+        <v>3.86</v>
+      </c>
+      <c r="BI181">
+        <v>1.39</v>
+      </c>
+      <c r="BJ181">
+        <v>2.67</v>
+      </c>
+      <c r="BK181">
+        <v>1.69</v>
+      </c>
+      <c r="BL181">
+        <v>2</v>
+      </c>
+      <c r="BM181">
+        <v>2.14</v>
+      </c>
+      <c r="BN181">
+        <v>1.6</v>
+      </c>
+      <c r="BO181">
+        <v>2.84</v>
+      </c>
+      <c r="BP181">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20232024.xlsx
@@ -37677,22 +37677,22 @@
         <v>2.98</v>
       </c>
       <c r="AU177">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV177">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AW177">
         <v>3</v>
       </c>
       <c r="AX177">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY177">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AZ177">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="BA177">
         <v>6</v>
@@ -37883,22 +37883,22 @@
         <v>2.87</v>
       </c>
       <c r="AU178">
+        <v>6</v>
+      </c>
+      <c r="AV178">
         <v>4</v>
       </c>
-      <c r="AV178">
-        <v>2</v>
-      </c>
       <c r="AW178">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX178">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY178">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ178">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA178">
         <v>12</v>
@@ -38089,22 +38089,22 @@
         <v>2.91</v>
       </c>
       <c r="AU179">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV179">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW179">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX179">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AY179">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ179">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA179">
         <v>9</v>
@@ -38295,22 +38295,22 @@
         <v>2.56</v>
       </c>
       <c r="AU180">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV180">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX180">
         <v>7</v>
       </c>
       <c r="AY180">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AZ180">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA180">
         <v>5</v>
@@ -38504,19 +38504,19 @@
         <v>8</v>
       </c>
       <c r="AV181">
+        <v>7</v>
+      </c>
+      <c r="AW181">
         <v>9</v>
       </c>
-      <c r="AW181">
-        <v>11</v>
-      </c>
       <c r="AX181">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY181">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ181">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA181">
         <v>7</v>
